--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -184,77 +184,90 @@
     <t>comments</t>
   </si>
   <si>
+    <t>Top die - C4 bump-1</t>
+  </si>
+  <si>
+    <t>BRCM TAP</t>
+  </si>
+  <si>
+    <t>E1825V_TAP</t>
+  </si>
+  <si>
+    <t>periphery_top_io2_wrap</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_atpg_mode_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__ATPG_MODE_L</t>
+  </si>
+  <si>
+    <t>inout</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__ATPG_MODE_L</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__ATPG_MODE_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__ATPG_MODE_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__ATPG_MODE_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F2="","",IF(A2="Top die - HBM","SII_L_"&amp;F2,"L_"&amp;F2))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__ATPG_MODE_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN2="","","C_"&amp;RIGHT(AN2,LEN(AN2)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>BRCM TAP</t>
-  </si>
-  <si>
-    <t>E1825V_TAP</t>
-  </si>
-  <si>
-    <t>periphery_top_io2_wrap</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_atpg_mode_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__ATPG_MODE_L</t>
-  </si>
-  <si>
-    <t>inout</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__ATPG_MODE_L</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__ATPG_MODE_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__ATPG_MODE_L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F2="","",IF(A2="Top die - HBM","SII_L_"&amp;F2,"L_"&amp;F2))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__ATPG_MODE_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN2="","","C_"&amp;RIGHT(AN2,LEN(AN2)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tck_iobuf.genblk1.i_gpio_tap</t>
@@ -1242,7 +1255,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,6 +1322,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1379,13 +1398,43 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1394,40 +1443,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1453,6 +1472,7 @@
       <rgbColor rgb="ffffe699"/>
       <rgbColor rgb="ffed7d31"/>
       <rgbColor rgb="fffbe5d6"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffb9cde5"/>
       <rgbColor rgb="ffc3d69b"/>
       <rgbColor rgb="ff2bd0d2"/>
@@ -1656,12 +1676,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1694,10 +1714,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1945,12 +1965,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2265,10 +2285,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2786,7 +2806,6 @@
       </c>
       <c r="AI2" t="s" s="14">
         <f>IF(LEFT(F2,3)="NC_","",IF(OR(A2="Top die - C4 bump",A2="Top die - HBM"),IF(G2="inout","inout",IF(G2="input","output",IF(G2="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" t="s" s="16">
@@ -2797,7 +2816,6 @@
       </c>
       <c r="AM2" t="s" s="18">
         <f>IF(A2="Top die - C4 bump",IF(AI2="inout","inout",IF(AI2="input","output",IF(AI2="output","input",""))),IF(A2="HBM - C4 bump",IF(AK2="inout","inout",IF(AK2="input","output",IF(AK2="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN2" t="s" s="19">
         <f>AL2</f>
@@ -2805,22 +2823,20 @@
       </c>
       <c r="AO2" t="s" s="19">
         <f>IF(AM2="inout","inout",IF(AM2="input","output",IF(AM2="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP2" t="s" s="19">
         <f>IF(AR2="Point-To-Point","HBM_"&amp;AU2&amp;"_DA"&amp;AS2,IF(AR2="Multi-Drop","HBM_"&amp;AT2&amp;"_DA"&amp;AS2,IF(AR2="High-Z","",IF(AN2="","",RIGHT(AN2,LEN(AN2)-3)))))</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AQ2" t="s" s="19">
         <f>IF(AO2="inout","inout",IF(AO2="input","output",IF(AO2="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR2" s="20"/>
-      <c r="AS2" t="s" s="19"/>
+      <c r="AS2" s="19"/>
       <c r="AT2" t="s" s="19">
         <f>IF(A2="HBM - C4 bump",IF(RIGHT(AU2,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU2" t="s" s="19"/>
+      <c r="AU2" s="19"/>
       <c r="AV2" s="21"/>
       <c r="AW2" t="b" s="22">
         <f>AN2=AL2</f>
@@ -2836,7 +2852,7 @@
       </c>
       <c r="AZ2" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY2)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BA2" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP2)),TRIM(BC2))</f>
@@ -2844,18 +2860,18 @@
       </c>
       <c r="BB2" t="s" s="8">
         <f>IF(AN2="","","C_"&amp;RIGHT(AN2,LEN(AN2)-3))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BC2" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB2)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BD2" s="23"/>
       <c r="BE2" s="23"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="8">
         <v>58</v>
@@ -2867,10 +2883,10 @@
         <v>60</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="10">
         <v>63</v>
@@ -2929,7 +2945,7 @@
       <c r="AG3" s="11"/>
       <c r="AH3" t="s" s="13">
         <f>IF(OR(F3="",LEFT(F3,3)="NC_"),"",IF(A3="Top die - HBM","SII_L_"&amp;F3,"L_"&amp;F3))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="14">
         <f>IF(LEFT(F3,3)="NC_","",IF(OR(A3="Top die - C4 bump",A3="Top die - HBM"),IF(G3="inout","inout",IF(G3="input","output",IF(G3="output","input"))),""))</f>
@@ -2940,7 +2956,7 @@
         <f>IF(A3="HBM - C4 bump","inout",IF(A3="Top die - HBM",IF(AI3="inout","inout",IF(AI3="input","output",IF(AI3="output","input"))),""))</f>
       </c>
       <c r="AL3" t="s" s="17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="18">
         <f>IF(A3="Top die - C4 bump",IF(AI3="inout","inout",IF(AI3="input","output",IF(AI3="output","input",""))),IF(A3="HBM - C4 bump",IF(AK3="inout","inout",IF(AK3="input","output",IF(AK3="output","input"))),""))</f>
@@ -2948,7 +2964,7 @@
       </c>
       <c r="AN3" t="s" s="19">
         <f>AL3</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AO3" t="s" s="19">
         <f>IF(AM3="inout","inout",IF(AM3="input","output",IF(AM3="output","input","")))</f>
@@ -2956,18 +2972,18 @@
       </c>
       <c r="AP3" t="s" s="19">
         <f>IF(AR3="Point-To-Point","HBM_"&amp;AU3&amp;"_DA"&amp;AS3,IF(AR3="Multi-Drop","HBM_"&amp;AT3&amp;"_DA"&amp;AS3,IF(AR3="High-Z","",IF(AN3="","",RIGHT(AN3,LEN(AN3)-3)))))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ3" t="s" s="19">
         <f>IF(AO3="inout","inout",IF(AO3="input","output",IF(AO3="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR3" s="20"/>
-      <c r="AS3" t="s" s="19"/>
+      <c r="AS3" s="19"/>
       <c r="AT3" t="s" s="19">
         <f>IF(A3="HBM - C4 bump",IF(RIGHT(AU3,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU3" t="s" s="19"/>
+      <c r="AU3" s="19"/>
       <c r="AV3" s="21"/>
       <c r="AW3" t="b" s="22">
         <f>AN3=AL3</f>
@@ -2979,11 +2995,11 @@
       </c>
       <c r="AY3" t="s" s="8">
         <f>IF(F3="","",IF(A3="Top die - HBM","SII_L_"&amp;F3,"L_"&amp;F3))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AZ3" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY3)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BA3" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP3)),TRIM(BC3))</f>
@@ -2991,18 +3007,18 @@
       </c>
       <c r="BB3" t="s" s="8">
         <f>IF(AN3="","","C_"&amp;RIGHT(AN3,LEN(AN3)-3))</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BC3" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB3)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BD3" s="23"/>
       <c r="BE3" s="23"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s" s="8">
         <v>58</v>
@@ -3014,10 +3030,10 @@
         <v>60</v>
       </c>
       <c r="E4" t="s" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="10">
         <v>63</v>
@@ -3076,7 +3092,7 @@
       <c r="AG4" s="11"/>
       <c r="AH4" t="s" s="13">
         <f>IF(OR(F4="",LEFT(F4,3)="NC_"),"",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="14">
         <f>IF(LEFT(F4,3)="NC_","",IF(OR(A4="Top die - C4 bump",A4="Top die - HBM"),IF(G4="inout","inout",IF(G4="input","output",IF(G4="output","input"))),""))</f>
@@ -3087,7 +3103,7 @@
         <f>IF(A4="HBM - C4 bump","inout",IF(A4="Top die - HBM",IF(AI4="inout","inout",IF(AI4="input","output",IF(AI4="output","input"))),""))</f>
       </c>
       <c r="AL4" t="s" s="17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="s" s="18">
         <f>IF(A4="Top die - C4 bump",IF(AI4="inout","inout",IF(AI4="input","output",IF(AI4="output","input",""))),IF(A4="HBM - C4 bump",IF(AK4="inout","inout",IF(AK4="input","output",IF(AK4="output","input"))),""))</f>
@@ -3095,7 +3111,7 @@
       </c>
       <c r="AN4" t="s" s="19">
         <f>AL4</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO4" t="s" s="19">
         <f>IF(AM4="inout","inout",IF(AM4="input","output",IF(AM4="output","input","")))</f>
@@ -3103,18 +3119,18 @@
       </c>
       <c r="AP4" t="s" s="19">
         <f>IF(AR4="Point-To-Point","HBM_"&amp;AU4&amp;"_DA"&amp;AS4,IF(AR4="Multi-Drop","HBM_"&amp;AT4&amp;"_DA"&amp;AS4,IF(AR4="High-Z","",IF(AN4="","",RIGHT(AN4,LEN(AN4)-3)))))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ4" t="s" s="19">
         <f>IF(AO4="inout","inout",IF(AO4="input","output",IF(AO4="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR4" s="20"/>
-      <c r="AS4" t="s" s="19"/>
+      <c r="AS4" s="19"/>
       <c r="AT4" t="s" s="19">
         <f>IF(A4="HBM - C4 bump",IF(RIGHT(AU4,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU4" t="s" s="19"/>
+      <c r="AU4" s="19"/>
       <c r="AV4" s="21"/>
       <c r="AW4" t="b" s="22">
         <f>AN4=AL4</f>
@@ -3126,11 +3142,11 @@
       </c>
       <c r="AY4" t="s" s="8">
         <f>IF(F4="","",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AZ4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY4)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA4" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP4)),TRIM(BC4))</f>
@@ -3138,18 +3154,18 @@
       </c>
       <c r="BB4" t="s" s="8">
         <f>IF(AN4="","","C_"&amp;RIGHT(AN4,LEN(AN4)-3))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BC4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB4)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BD4" s="23"/>
       <c r="BE4" s="23"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="8">
         <v>58</v>
@@ -3161,10 +3177,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s" s="9">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s" s="10">
         <v>63</v>
@@ -3223,7 +3239,7 @@
       <c r="AG5" s="11"/>
       <c r="AH5" t="s" s="13">
         <f>IF(OR(F5="",LEFT(F5,3)="NC_"),"",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="14">
         <f>IF(LEFT(F5,3)="NC_","",IF(OR(A5="Top die - C4 bump",A5="Top die - HBM"),IF(G5="inout","inout",IF(G5="input","output",IF(G5="output","input"))),""))</f>
@@ -3234,7 +3250,7 @@
         <f>IF(A5="HBM - C4 bump","inout",IF(A5="Top die - HBM",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input"))),""))</f>
       </c>
       <c r="AL5" t="s" s="17">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM5" t="s" s="18">
         <f>IF(A5="Top die - C4 bump",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input",""))),IF(A5="HBM - C4 bump",IF(AK5="inout","inout",IF(AK5="input","output",IF(AK5="output","input"))),""))</f>
@@ -3242,7 +3258,7 @@
       </c>
       <c r="AN5" t="s" s="19">
         <f>AL5</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AO5" t="s" s="19">
         <f>IF(AM5="inout","inout",IF(AM5="input","output",IF(AM5="output","input","")))</f>
@@ -3250,18 +3266,18 @@
       </c>
       <c r="AP5" t="s" s="19">
         <f>IF(AR5="Point-To-Point","HBM_"&amp;AU5&amp;"_DA"&amp;AS5,IF(AR5="Multi-Drop","HBM_"&amp;AT5&amp;"_DA"&amp;AS5,IF(AR5="High-Z","",IF(AN5="","",RIGHT(AN5,LEN(AN5)-3)))))</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AQ5" t="s" s="19">
         <f>IF(AO5="inout","inout",IF(AO5="input","output",IF(AO5="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR5" s="20"/>
-      <c r="AS5" t="s" s="19"/>
+      <c r="AS5" s="19"/>
       <c r="AT5" t="s" s="19">
         <f>IF(A5="HBM - C4 bump",IF(RIGHT(AU5,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU5" t="s" s="19"/>
+      <c r="AU5" s="19"/>
       <c r="AV5" s="21"/>
       <c r="AW5" t="b" s="22">
         <f>AN5=AL5</f>
@@ -3273,11 +3289,11 @@
       </c>
       <c r="AY5" t="s" s="8">
         <f>IF(F5="","",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AZ5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY5)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BA5" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP5)),TRIM(BC5))</f>
@@ -3285,18 +3301,18 @@
       </c>
       <c r="BB5" t="s" s="8">
         <f>IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)-3))</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BC5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB5)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BD5" s="23"/>
       <c r="BE5" s="23"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="8">
         <v>58</v>
@@ -3308,10 +3324,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s" s="10">
         <v>63</v>
@@ -3370,7 +3386,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" t="s" s="13">
         <f>IF(OR(F6="",LEFT(F6,3)="NC_"),"",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AI6" t="s" s="14">
         <f>IF(LEFT(F6,3)="NC_","",IF(OR(A6="Top die - C4 bump",A6="Top die - HBM"),IF(G6="inout","inout",IF(G6="input","output",IF(G6="output","input"))),""))</f>
@@ -3381,7 +3397,7 @@
         <f>IF(A6="HBM - C4 bump","inout",IF(A6="Top die - HBM",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input"))),""))</f>
       </c>
       <c r="AL6" t="s" s="17">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s" s="18">
         <f>IF(A6="Top die - C4 bump",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input",""))),IF(A6="HBM - C4 bump",IF(AK6="inout","inout",IF(AK6="input","output",IF(AK6="output","input"))),""))</f>
@@ -3389,7 +3405,7 @@
       </c>
       <c r="AN6" t="s" s="19">
         <f>AL6</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AO6" t="s" s="19">
         <f>IF(AM6="inout","inout",IF(AM6="input","output",IF(AM6="output","input","")))</f>
@@ -3397,18 +3413,18 @@
       </c>
       <c r="AP6" t="s" s="19">
         <f>IF(AR6="Point-To-Point","HBM_"&amp;AU6&amp;"_DA"&amp;AS6,IF(AR6="Multi-Drop","HBM_"&amp;AT6&amp;"_DA"&amp;AS6,IF(AR6="High-Z","",IF(AN6="","",RIGHT(AN6,LEN(AN6)-3)))))</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AQ6" t="s" s="19">
         <f>IF(AO6="inout","inout",IF(AO6="input","output",IF(AO6="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR6" s="20"/>
-      <c r="AS6" t="s" s="19"/>
+      <c r="AS6" s="19"/>
       <c r="AT6" t="s" s="19">
         <f>IF(A6="HBM - C4 bump",IF(RIGHT(AU6,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU6" t="s" s="19"/>
+      <c r="AU6" s="19"/>
       <c r="AV6" s="21"/>
       <c r="AW6" t="b" s="22">
         <f>AN6=AL6</f>
@@ -3420,11 +3436,11 @@
       </c>
       <c r="AY6" t="s" s="8">
         <f>IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AZ6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY6)</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BA6" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP6)),TRIM(BC6))</f>
@@ -3432,18 +3448,18 @@
       </c>
       <c r="BB6" t="s" s="8">
         <f>IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)-3))</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BC6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB6)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BD6" s="23"/>
       <c r="BE6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>58</v>
@@ -3455,10 +3471,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>63</v>
@@ -3467,7 +3483,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -3519,7 +3535,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" t="s" s="13">
         <f>IF(OR(F7="",LEFT(F7,3)="NC_"),"",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AI7" t="s" s="14">
         <f>IF(LEFT(F7,3)="NC_","",IF(OR(A7="Top die - C4 bump",A7="Top die - HBM"),IF(G7="inout","inout",IF(G7="input","output",IF(G7="output","input"))),""))</f>
@@ -3530,7 +3546,7 @@
         <f>IF(A7="HBM - C4 bump","inout",IF(A7="Top die - HBM",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input"))),""))</f>
       </c>
       <c r="AL7" t="s" s="17">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="s" s="18">
         <f>IF(A7="Top die - C4 bump",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input",""))),IF(A7="HBM - C4 bump",IF(AK7="inout","inout",IF(AK7="input","output",IF(AK7="output","input"))),""))</f>
@@ -3538,7 +3554,7 @@
       </c>
       <c r="AN7" t="s" s="19">
         <f>AL7</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AO7" t="s" s="19">
         <f>IF(AM7="inout","inout",IF(AM7="input","output",IF(AM7="output","input","")))</f>
@@ -3546,18 +3562,18 @@
       </c>
       <c r="AP7" t="s" s="19">
         <f>IF(AR7="Point-To-Point","HBM_"&amp;AU7&amp;"_DA"&amp;AS7,IF(AR7="Multi-Drop","HBM_"&amp;AT7&amp;"_DA"&amp;AS7,IF(AR7="High-Z","",IF(AN7="","",RIGHT(AN7,LEN(AN7)-3)))))</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AQ7" t="s" s="19">
         <f>IF(AO7="inout","inout",IF(AO7="input","output",IF(AO7="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR7" s="20"/>
-      <c r="AS7" t="s" s="19"/>
+      <c r="AS7" s="19"/>
       <c r="AT7" t="s" s="19">
         <f>IF(A7="HBM - C4 bump",IF(RIGHT(AU7,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU7" t="s" s="19"/>
+      <c r="AU7" s="19"/>
       <c r="AV7" s="21"/>
       <c r="AW7" t="b" s="22">
         <f>AN7=AL7</f>
@@ -3569,11 +3585,11 @@
       </c>
       <c r="AY7" t="s" s="8">
         <f>IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AZ7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY7)</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA7" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP7)),TRIM(BC7))</f>
@@ -3581,18 +3597,18 @@
       </c>
       <c r="BB7" t="s" s="8">
         <f>IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)-3))</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BC7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB7)</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s" s="8">
         <v>58</v>
@@ -3604,10 +3620,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>63</v>
@@ -3666,7 +3682,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" t="s" s="13">
         <f>IF(OR(F8="",LEFT(F8,3)="NC_"),"",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
@@ -3677,7 +3693,7 @@
         <f>IF(A8="HBM - C4 bump","inout",IF(A8="Top die - HBM",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input"))),""))</f>
       </c>
       <c r="AL8" t="s" s="17">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
@@ -3685,7 +3701,7 @@
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
@@ -3693,18 +3709,18 @@
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR8" s="20"/>
-      <c r="AS8" t="s" s="19"/>
+      <c r="AS8" s="19"/>
       <c r="AT8" t="s" s="19">
         <f>IF(A8="HBM - C4 bump",IF(RIGHT(AU8,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU8" t="s" s="19"/>
+      <c r="AU8" s="19"/>
       <c r="AV8" s="21"/>
       <c r="AW8" t="b" s="22">
         <f>AN8=AL8</f>
@@ -3716,11 +3732,11 @@
       </c>
       <c r="AY8" t="s" s="8">
         <f>IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3728,18 +3744,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3751,10 +3767,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3813,7 +3829,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
@@ -3824,7 +3840,7 @@
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
@@ -3832,7 +3848,7 @@
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
@@ -3840,18 +3856,18 @@
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR9" s="20"/>
-      <c r="AS9" t="s" s="19"/>
+      <c r="AS9" s="19"/>
       <c r="AT9" t="s" s="19">
         <f>IF(A9="HBM - C4 bump",IF(RIGHT(AU9,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU9" t="s" s="19"/>
+      <c r="AU9" s="19"/>
       <c r="AV9" s="21"/>
       <c r="AW9" t="b" s="22">
         <f>AN9=AL9</f>
@@ -3863,11 +3879,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3875,33 +3891,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3930,10 +3946,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -3960,11 +3976,11 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
@@ -3975,7 +3991,7 @@
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
@@ -3983,7 +3999,7 @@
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
@@ -3991,18 +4007,18 @@
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR10" s="20"/>
-      <c r="AS10" t="s" s="19"/>
+      <c r="AS10" s="19"/>
       <c r="AT10" t="s" s="19">
         <f>IF(A10="HBM - C4 bump",IF(RIGHT(AU10,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU10" t="s" s="19"/>
+      <c r="AU10" s="19"/>
       <c r="AV10" s="21"/>
       <c r="AW10" t="b" s="22">
         <f>AN10=AL10</f>
@@ -4014,11 +4030,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4026,33 +4042,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4081,10 +4097,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4111,11 +4127,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4126,7 +4142,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4134,7 +4150,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4142,18 +4158,18 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
         <v>63</v>
       </c>
       <c r="AR11" s="20"/>
-      <c r="AS11" t="s" s="19"/>
+      <c r="AS11" s="19"/>
       <c r="AT11" t="s" s="19">
         <f>IF(A11="HBM - C4 bump",IF(RIGHT(AU11,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU11" t="s" s="19"/>
+      <c r="AU11" s="19"/>
       <c r="AV11" s="21"/>
       <c r="AW11" t="b" s="22">
         <f>AN11=AL11</f>
@@ -4165,11 +4181,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4177,36 +4193,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4236,7 +4252,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4264,45 +4280,45 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR12" s="20"/>
-      <c r="AS12" t="s" s="19"/>
+      <c r="AS12" s="19"/>
       <c r="AT12" t="s" s="19">
         <f>IF(A12="HBM - C4 bump",IF(RIGHT(AU12,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU12" t="s" s="19"/>
+      <c r="AU12" s="19"/>
       <c r="AV12" s="21"/>
       <c r="AW12" t="b" s="22">
         <f>AN12=AL12</f>
@@ -4314,11 +4330,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4326,36 +4342,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4385,7 +4401,7 @@
         <v>65</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4413,45 +4429,45 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR13" s="20"/>
-      <c r="AS13" t="s" s="19"/>
+      <c r="AS13" s="19"/>
       <c r="AT13" t="s" s="19">
         <f>IF(A13="HBM - C4 bump",IF(RIGHT(AU13,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU13" t="s" s="19"/>
+      <c r="AU13" s="19"/>
       <c r="AV13" s="21"/>
       <c r="AW13" t="b" s="22">
         <f>AN13=AL13</f>
@@ -4463,11 +4479,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4475,36 +4491,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4534,7 +4550,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4560,49 +4576,49 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR14" s="20"/>
-      <c r="AS14" t="s" s="19"/>
+      <c r="AS14" s="19"/>
       <c r="AT14" t="s" s="19">
         <f>IF(A14="HBM - C4 bump",IF(RIGHT(AU14,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU14" t="s" s="19"/>
+      <c r="AU14" s="19"/>
       <c r="AV14" s="21"/>
       <c r="AW14" t="b" s="22">
         <f>AN14=AL14</f>
@@ -4614,11 +4630,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4626,36 +4642,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4685,7 +4701,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4711,49 +4727,49 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR15" s="20"/>
-      <c r="AS15" t="s" s="19"/>
+      <c r="AS15" s="19"/>
       <c r="AT15" t="s" s="19">
         <f>IF(A15="HBM - C4 bump",IF(RIGHT(AU15,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU15" t="s" s="19"/>
+      <c r="AU15" s="19"/>
       <c r="AV15" s="21"/>
       <c r="AW15" t="b" s="22">
         <f>AN15=AL15</f>
@@ -4765,11 +4781,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4777,36 +4793,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4836,7 +4852,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4862,49 +4878,49 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR16" s="20"/>
-      <c r="AS16" t="s" s="19"/>
+      <c r="AS16" s="19"/>
       <c r="AT16" t="s" s="19">
         <f>IF(A16="HBM - C4 bump",IF(RIGHT(AU16,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU16" t="s" s="19"/>
+      <c r="AU16" s="19"/>
       <c r="AV16" s="21"/>
       <c r="AW16" t="b" s="22">
         <f>AN16=AL16</f>
@@ -4916,11 +4932,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4928,36 +4944,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -4987,7 +5003,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5013,49 +5029,49 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR17" s="20"/>
-      <c r="AS17" t="s" s="19"/>
+      <c r="AS17" s="19"/>
       <c r="AT17" t="s" s="19">
         <f>IF(A17="HBM - C4 bump",IF(RIGHT(AU17,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU17" t="s" s="19"/>
+      <c r="AU17" s="19"/>
       <c r="AV17" s="21"/>
       <c r="AW17" t="b" s="22">
         <f>AN17=AL17</f>
@@ -5067,11 +5083,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5079,36 +5095,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5154,61 +5170,61 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR18" s="20"/>
-      <c r="AS18" t="s" s="19"/>
+      <c r="AS18" s="19"/>
       <c r="AT18" t="s" s="19">
         <f>IF(A18="HBM - C4 bump",IF(RIGHT(AU18,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU18" t="s" s="19"/>
+      <c r="AU18" s="19"/>
       <c r="AV18" s="21"/>
       <c r="AW18" s="21"/>
       <c r="AX18" s="21"/>
@@ -5222,25 +5238,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5286,61 +5302,61 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR19" s="20"/>
-      <c r="AS19" t="s" s="19"/>
+      <c r="AS19" s="19"/>
       <c r="AT19" t="s" s="19">
         <f>IF(A19="HBM - C4 bump",IF(RIGHT(AU19,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU19" t="s" s="19"/>
+      <c r="AU19" s="19"/>
       <c r="AV19" s="21"/>
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
@@ -5354,25 +5370,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5418,61 +5434,61 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR20" s="20"/>
-      <c r="AS20" t="s" s="19"/>
+      <c r="AS20" s="19"/>
       <c r="AT20" t="s" s="19">
         <f>IF(A20="HBM - C4 bump",IF(RIGHT(AU20,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU20" t="s" s="19"/>
+      <c r="AU20" s="19"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
       <c r="AX20" s="21"/>
@@ -5486,25 +5502,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5550,61 +5566,61 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR21" s="20"/>
-      <c r="AS21" t="s" s="19"/>
+      <c r="AS21" s="19"/>
       <c r="AT21" t="s" s="19">
         <f>IF(A21="HBM - C4 bump",IF(RIGHT(AU21,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU21" t="s" s="19"/>
+      <c r="AU21" s="19"/>
       <c r="AV21" s="21"/>
       <c r="AW21" s="21"/>
       <c r="AX21" s="21"/>
@@ -5618,26 +5634,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5674,7 +5690,7 @@
       <c r="AK22" t="s" s="16">
         <f>IF(A22="HBM - C4 bump","inout",IF(A22="Top die - HBM",IF(AI22="inout","inout",IF(AI22="input","output",IF(AI22="output","input"))),""))</f>
       </c>
-      <c r="AL22" t="s" s="17"/>
+      <c r="AL22" s="17"/>
       <c r="AM22" t="s" s="18">
         <f>IF(A22="Top die - C4 bump",IF(AI22="inout","inout",IF(AI22="input","output",IF(AI22="output","input",""))),IF(A22="HBM - C4 bump",IF(AK22="inout","inout",IF(AK22="input","output",IF(AK22="output","input"))),""))</f>
       </c>
@@ -5691,11 +5707,11 @@
         <f>IF(AO22="inout","inout",IF(AO22="input","output",IF(AO22="output","input","")))</f>
       </c>
       <c r="AR22" s="20"/>
-      <c r="AS22" t="s" s="19"/>
+      <c r="AS22" s="19"/>
       <c r="AT22" t="s" s="19">
         <f>IF(A22="HBM - C4 bump",IF(RIGHT(AU22,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU22" t="s" s="19"/>
+      <c r="AU22" s="19"/>
       <c r="AV22" s="21"/>
       <c r="AW22" s="21"/>
       <c r="AX22" s="21"/>
@@ -5709,26 +5725,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -5765,7 +5781,7 @@
       <c r="AK23" t="s" s="16">
         <f>IF(A23="HBM - C4 bump","inout",IF(A23="Top die - HBM",IF(AI23="inout","inout",IF(AI23="input","output",IF(AI23="output","input"))),""))</f>
       </c>
-      <c r="AL23" t="s" s="17"/>
+      <c r="AL23" s="17"/>
       <c r="AM23" t="s" s="18">
         <f>IF(A23="Top die - C4 bump",IF(AI23="inout","inout",IF(AI23="input","output",IF(AI23="output","input",""))),IF(A23="HBM - C4 bump",IF(AK23="inout","inout",IF(AK23="input","output",IF(AK23="output","input"))),""))</f>
       </c>
@@ -5782,11 +5798,11 @@
         <f>IF(AO23="inout","inout",IF(AO23="input","output",IF(AO23="output","input","")))</f>
       </c>
       <c r="AR23" s="20"/>
-      <c r="AS23" t="s" s="19"/>
+      <c r="AS23" s="19"/>
       <c r="AT23" t="s" s="19">
         <f>IF(A23="HBM - C4 bump",IF(RIGHT(AU23,1)="E","EAST","WEST"),"")</f>
       </c>
-      <c r="AU23" t="s" s="19"/>
+      <c r="AU23" s="19"/>
       <c r="AV23" s="21"/>
       <c r="AW23" s="21"/>
       <c r="AX23" s="21"/>

--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -267,59 +267,72 @@
     </r>
   </si>
   <si>
+    <t>Top die - C4 bump-2</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tck_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TCK</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TCK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TCK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F3="","",IF(A3="Top die - HBM","SII_L_"&amp;F3,"L_"&amp;F3))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN3="","","C_"&amp;RIGHT(AN3,LEN(AN3)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tck_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TCK</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TCK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F3="","",IF(A3="Top die - HBM","SII_L_"&amp;F3,"L_"&amp;F3))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN3="","","C_"&amp;RIGHT(AN3,LEN(AN3)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tms_iobuf.genblk1.i_gpio_tap</t>
@@ -2949,7 +2962,6 @@
       </c>
       <c r="AI3" t="s" s="14">
         <f>IF(LEFT(F3,3)="NC_","",IF(OR(A3="Top die - C4 bump",A3="Top die - HBM"),IF(G3="inout","inout",IF(G3="input","output",IF(G3="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" t="s" s="16">
@@ -2960,7 +2972,6 @@
       </c>
       <c r="AM3" t="s" s="18">
         <f>IF(A3="Top die - C4 bump",IF(AI3="inout","inout",IF(AI3="input","output",IF(AI3="output","input",""))),IF(A3="HBM - C4 bump",IF(AK3="inout","inout",IF(AK3="input","output",IF(AK3="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN3" t="s" s="19">
         <f>AL3</f>
@@ -2968,15 +2979,13 @@
       </c>
       <c r="AO3" t="s" s="19">
         <f>IF(AM3="inout","inout",IF(AM3="input","output",IF(AM3="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP3" t="s" s="19">
         <f>IF(AR3="Point-To-Point","HBM_"&amp;AU3&amp;"_DA"&amp;AS3,IF(AR3="Multi-Drop","HBM_"&amp;AT3&amp;"_DA"&amp;AS3,IF(AR3="High-Z","",IF(AN3="","",RIGHT(AN3,LEN(AN3)-3)))))</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AQ3" t="s" s="19">
         <f>IF(AO3="inout","inout",IF(AO3="input","output",IF(AO3="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR3" s="20"/>
       <c r="AS3" s="19"/>
@@ -2999,7 +3008,7 @@
       </c>
       <c r="AZ3" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY3)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BA3" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP3)),TRIM(BC3))</f>
@@ -3007,18 +3016,18 @@
       </c>
       <c r="BB3" t="s" s="8">
         <f>IF(AN3="","","C_"&amp;RIGHT(AN3,LEN(AN3)-3))</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB3)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BD3" s="23"/>
       <c r="BE3" s="23"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="8">
         <v>58</v>
@@ -3030,10 +3039,10 @@
         <v>60</v>
       </c>
       <c r="E4" t="s" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="10">
         <v>63</v>
@@ -3092,7 +3101,7 @@
       <c r="AG4" s="11"/>
       <c r="AH4" t="s" s="13">
         <f>IF(OR(F4="",LEFT(F4,3)="NC_"),"",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="14">
         <f>IF(LEFT(F4,3)="NC_","",IF(OR(A4="Top die - C4 bump",A4="Top die - HBM"),IF(G4="inout","inout",IF(G4="input","output",IF(G4="output","input"))),""))</f>
@@ -3103,7 +3112,7 @@
         <f>IF(A4="HBM - C4 bump","inout",IF(A4="Top die - HBM",IF(AI4="inout","inout",IF(AI4="input","output",IF(AI4="output","input"))),""))</f>
       </c>
       <c r="AL4" t="s" s="17">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s" s="18">
         <f>IF(A4="Top die - C4 bump",IF(AI4="inout","inout",IF(AI4="input","output",IF(AI4="output","input",""))),IF(A4="HBM - C4 bump",IF(AK4="inout","inout",IF(AK4="input","output",IF(AK4="output","input"))),""))</f>
@@ -3111,7 +3120,7 @@
       </c>
       <c r="AN4" t="s" s="19">
         <f>AL4</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AO4" t="s" s="19">
         <f>IF(AM4="inout","inout",IF(AM4="input","output",IF(AM4="output","input","")))</f>
@@ -3119,7 +3128,7 @@
       </c>
       <c r="AP4" t="s" s="19">
         <f>IF(AR4="Point-To-Point","HBM_"&amp;AU4&amp;"_DA"&amp;AS4,IF(AR4="Multi-Drop","HBM_"&amp;AT4&amp;"_DA"&amp;AS4,IF(AR4="High-Z","",IF(AN4="","",RIGHT(AN4,LEN(AN4)-3)))))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AQ4" t="s" s="19">
         <f>IF(AO4="inout","inout",IF(AO4="input","output",IF(AO4="output","input","")))</f>
@@ -3142,11 +3151,11 @@
       </c>
       <c r="AY4" t="s" s="8">
         <f>IF(F4="","",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AZ4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY4)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BA4" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP4)),TRIM(BC4))</f>
@@ -3154,18 +3163,18 @@
       </c>
       <c r="BB4" t="s" s="8">
         <f>IF(AN4="","","C_"&amp;RIGHT(AN4,LEN(AN4)-3))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BC4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB4)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BD4" s="23"/>
       <c r="BE4" s="23"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="8">
         <v>58</v>
@@ -3177,10 +3186,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s" s="10">
         <v>63</v>
@@ -3239,7 +3248,7 @@
       <c r="AG5" s="11"/>
       <c r="AH5" t="s" s="13">
         <f>IF(OR(F5="",LEFT(F5,3)="NC_"),"",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="14">
         <f>IF(LEFT(F5,3)="NC_","",IF(OR(A5="Top die - C4 bump",A5="Top die - HBM"),IF(G5="inout","inout",IF(G5="input","output",IF(G5="output","input"))),""))</f>
@@ -3250,7 +3259,7 @@
         <f>IF(A5="HBM - C4 bump","inout",IF(A5="Top die - HBM",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input"))),""))</f>
       </c>
       <c r="AL5" t="s" s="17">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="s" s="18">
         <f>IF(A5="Top die - C4 bump",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input",""))),IF(A5="HBM - C4 bump",IF(AK5="inout","inout",IF(AK5="input","output",IF(AK5="output","input"))),""))</f>
@@ -3258,7 +3267,7 @@
       </c>
       <c r="AN5" t="s" s="19">
         <f>AL5</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AO5" t="s" s="19">
         <f>IF(AM5="inout","inout",IF(AM5="input","output",IF(AM5="output","input","")))</f>
@@ -3266,7 +3275,7 @@
       </c>
       <c r="AP5" t="s" s="19">
         <f>IF(AR5="Point-To-Point","HBM_"&amp;AU5&amp;"_DA"&amp;AS5,IF(AR5="Multi-Drop","HBM_"&amp;AT5&amp;"_DA"&amp;AS5,IF(AR5="High-Z","",IF(AN5="","",RIGHT(AN5,LEN(AN5)-3)))))</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AQ5" t="s" s="19">
         <f>IF(AO5="inout","inout",IF(AO5="input","output",IF(AO5="output","input","")))</f>
@@ -3289,11 +3298,11 @@
       </c>
       <c r="AY5" t="s" s="8">
         <f>IF(F5="","",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AZ5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY5)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BA5" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP5)),TRIM(BC5))</f>
@@ -3301,18 +3310,18 @@
       </c>
       <c r="BB5" t="s" s="8">
         <f>IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)-3))</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BC5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB5)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BD5" s="23"/>
       <c r="BE5" s="23"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="8">
         <v>58</v>
@@ -3324,10 +3333,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s" s="10">
         <v>63</v>
@@ -3386,7 +3395,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" t="s" s="13">
         <f>IF(OR(F6="",LEFT(F6,3)="NC_"),"",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI6" t="s" s="14">
         <f>IF(LEFT(F6,3)="NC_","",IF(OR(A6="Top die - C4 bump",A6="Top die - HBM"),IF(G6="inout","inout",IF(G6="input","output",IF(G6="output","input"))),""))</f>
@@ -3397,7 +3406,7 @@
         <f>IF(A6="HBM - C4 bump","inout",IF(A6="Top die - HBM",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input"))),""))</f>
       </c>
       <c r="AL6" t="s" s="17">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM6" t="s" s="18">
         <f>IF(A6="Top die - C4 bump",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input",""))),IF(A6="HBM - C4 bump",IF(AK6="inout","inout",IF(AK6="input","output",IF(AK6="output","input"))),""))</f>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="AN6" t="s" s="19">
         <f>AL6</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO6" t="s" s="19">
         <f>IF(AM6="inout","inout",IF(AM6="input","output",IF(AM6="output","input","")))</f>
@@ -3413,7 +3422,7 @@
       </c>
       <c r="AP6" t="s" s="19">
         <f>IF(AR6="Point-To-Point","HBM_"&amp;AU6&amp;"_DA"&amp;AS6,IF(AR6="Multi-Drop","HBM_"&amp;AT6&amp;"_DA"&amp;AS6,IF(AR6="High-Z","",IF(AN6="","",RIGHT(AN6,LEN(AN6)-3)))))</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AQ6" t="s" s="19">
         <f>IF(AO6="inout","inout",IF(AO6="input","output",IF(AO6="output","input","")))</f>
@@ -3436,11 +3445,11 @@
       </c>
       <c r="AY6" t="s" s="8">
         <f>IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AZ6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY6)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BA6" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP6)),TRIM(BC6))</f>
@@ -3448,18 +3457,18 @@
       </c>
       <c r="BB6" t="s" s="8">
         <f>IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)-3))</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BC6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB6)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BD6" s="23"/>
       <c r="BE6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>58</v>
@@ -3471,10 +3480,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>63</v>
@@ -3483,7 +3492,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -3535,7 +3544,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" t="s" s="13">
         <f>IF(OR(F7="",LEFT(F7,3)="NC_"),"",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI7" t="s" s="14">
         <f>IF(LEFT(F7,3)="NC_","",IF(OR(A7="Top die - C4 bump",A7="Top die - HBM"),IF(G7="inout","inout",IF(G7="input","output",IF(G7="output","input"))),""))</f>
@@ -3546,7 +3555,7 @@
         <f>IF(A7="HBM - C4 bump","inout",IF(A7="Top die - HBM",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input"))),""))</f>
       </c>
       <c r="AL7" t="s" s="17">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM7" t="s" s="18">
         <f>IF(A7="Top die - C4 bump",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input",""))),IF(A7="HBM - C4 bump",IF(AK7="inout","inout",IF(AK7="input","output",IF(AK7="output","input"))),""))</f>
@@ -3554,7 +3563,7 @@
       </c>
       <c r="AN7" t="s" s="19">
         <f>AL7</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO7" t="s" s="19">
         <f>IF(AM7="inout","inout",IF(AM7="input","output",IF(AM7="output","input","")))</f>
@@ -3562,7 +3571,7 @@
       </c>
       <c r="AP7" t="s" s="19">
         <f>IF(AR7="Point-To-Point","HBM_"&amp;AU7&amp;"_DA"&amp;AS7,IF(AR7="Multi-Drop","HBM_"&amp;AT7&amp;"_DA"&amp;AS7,IF(AR7="High-Z","",IF(AN7="","",RIGHT(AN7,LEN(AN7)-3)))))</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AQ7" t="s" s="19">
         <f>IF(AO7="inout","inout",IF(AO7="input","output",IF(AO7="output","input","")))</f>
@@ -3585,11 +3594,11 @@
       </c>
       <c r="AY7" t="s" s="8">
         <f>IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AZ7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY7)</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BA7" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP7)),TRIM(BC7))</f>
@@ -3597,18 +3606,18 @@
       </c>
       <c r="BB7" t="s" s="8">
         <f>IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)-3))</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BC7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB7)</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="8">
         <v>58</v>
@@ -3620,10 +3629,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>63</v>
@@ -3682,7 +3691,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" t="s" s="13">
         <f>IF(OR(F8="",LEFT(F8,3)="NC_"),"",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
@@ -3693,7 +3702,7 @@
         <f>IF(A8="HBM - C4 bump","inout",IF(A8="Top die - HBM",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input"))),""))</f>
       </c>
       <c r="AL8" t="s" s="17">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
@@ -3701,7 +3710,7 @@
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
@@ -3709,7 +3718,7 @@
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
@@ -3732,11 +3741,11 @@
       </c>
       <c r="AY8" t="s" s="8">
         <f>IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3744,18 +3753,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3767,10 +3776,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3829,7 +3838,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
@@ -3840,7 +3849,7 @@
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
@@ -3848,7 +3857,7 @@
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
@@ -3856,7 +3865,7 @@
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
@@ -3879,11 +3888,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3891,33 +3900,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3946,10 +3955,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -3976,11 +3985,11 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
@@ -3991,7 +4000,7 @@
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
@@ -3999,7 +4008,7 @@
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
@@ -4007,7 +4016,7 @@
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
@@ -4030,11 +4039,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4042,33 +4051,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4097,10 +4106,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4127,11 +4136,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4142,7 +4151,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4150,7 +4159,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4193,36 +4202,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4252,7 +4261,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4280,38 +4289,38 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR12" s="20"/>
       <c r="AS12" s="19"/>
@@ -4330,11 +4339,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4342,36 +4351,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4401,7 +4410,7 @@
         <v>65</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4429,38 +4438,38 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="19"/>
@@ -4479,11 +4488,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4491,36 +4500,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4550,7 +4559,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4576,42 +4585,42 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="19"/>
@@ -4630,11 +4639,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4642,36 +4651,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4701,7 +4710,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4727,42 +4736,42 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="19"/>
@@ -4781,11 +4790,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4793,36 +4802,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4852,7 +4861,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4878,42 +4887,42 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="19"/>
@@ -4932,11 +4941,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4944,36 +4953,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -5003,7 +5012,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5029,42 +5038,42 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="19"/>
@@ -5083,11 +5092,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5095,36 +5104,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5170,54 +5179,54 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="19"/>
@@ -5238,25 +5247,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5302,54 +5311,54 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="19"/>
@@ -5370,25 +5379,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5434,54 +5443,54 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="19"/>
@@ -5502,25 +5511,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5566,54 +5575,54 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="19"/>
@@ -5634,26 +5643,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5725,26 +5734,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>

--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -332,59 +332,72 @@
     </r>
   </si>
   <si>
+    <t>Top die - C4 bump-3</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tms_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TMS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TMS</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TMS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TMS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TMS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F4="","",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TMS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN4="","","C_"&amp;RIGHT(AN4,LEN(AN4)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tms_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TMS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TMS</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TMS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TMS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F4="","",IF(A4="Top die - HBM","SII_L_"&amp;F4,"L_"&amp;F4))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TMS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN4="","","C_"&amp;RIGHT(AN4,LEN(AN4)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tdi_iobuf.genblk1.i_gpio_tap</t>
@@ -3105,7 +3118,6 @@
       </c>
       <c r="AI4" t="s" s="14">
         <f>IF(LEFT(F4,3)="NC_","",IF(OR(A4="Top die - C4 bump",A4="Top die - HBM"),IF(G4="inout","inout",IF(G4="input","output",IF(G4="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ4" s="15"/>
       <c r="AK4" t="s" s="16">
@@ -3116,7 +3128,6 @@
       </c>
       <c r="AM4" t="s" s="18">
         <f>IF(A4="Top die - C4 bump",IF(AI4="inout","inout",IF(AI4="input","output",IF(AI4="output","input",""))),IF(A4="HBM - C4 bump",IF(AK4="inout","inout",IF(AK4="input","output",IF(AK4="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN4" t="s" s="19">
         <f>AL4</f>
@@ -3124,15 +3135,13 @@
       </c>
       <c r="AO4" t="s" s="19">
         <f>IF(AM4="inout","inout",IF(AM4="input","output",IF(AM4="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP4" t="s" s="19">
         <f>IF(AR4="Point-To-Point","HBM_"&amp;AU4&amp;"_DA"&amp;AS4,IF(AR4="Multi-Drop","HBM_"&amp;AT4&amp;"_DA"&amp;AS4,IF(AR4="High-Z","",IF(AN4="","",RIGHT(AN4,LEN(AN4)-3)))))</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AQ4" t="s" s="19">
         <f>IF(AO4="inout","inout",IF(AO4="input","output",IF(AO4="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR4" s="20"/>
       <c r="AS4" s="19"/>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="AZ4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY4)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP4)),TRIM(BC4))</f>
@@ -3163,18 +3172,18 @@
       </c>
       <c r="BB4" t="s" s="8">
         <f>IF(AN4="","","C_"&amp;RIGHT(AN4,LEN(AN4)-3))</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC4" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB4)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BD4" s="23"/>
       <c r="BE4" s="23"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="8">
         <v>58</v>
@@ -3186,10 +3195,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s" s="10">
         <v>63</v>
@@ -3248,7 +3257,7 @@
       <c r="AG5" s="11"/>
       <c r="AH5" t="s" s="13">
         <f>IF(OR(F5="",LEFT(F5,3)="NC_"),"",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AI5" t="s" s="14">
         <f>IF(LEFT(F5,3)="NC_","",IF(OR(A5="Top die - C4 bump",A5="Top die - HBM"),IF(G5="inout","inout",IF(G5="input","output",IF(G5="output","input"))),""))</f>
@@ -3259,7 +3268,7 @@
         <f>IF(A5="HBM - C4 bump","inout",IF(A5="Top die - HBM",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input"))),""))</f>
       </c>
       <c r="AL5" t="s" s="17">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AM5" t="s" s="18">
         <f>IF(A5="Top die - C4 bump",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input",""))),IF(A5="HBM - C4 bump",IF(AK5="inout","inout",IF(AK5="input","output",IF(AK5="output","input"))),""))</f>
@@ -3267,7 +3276,7 @@
       </c>
       <c r="AN5" t="s" s="19">
         <f>AL5</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO5" t="s" s="19">
         <f>IF(AM5="inout","inout",IF(AM5="input","output",IF(AM5="output","input","")))</f>
@@ -3275,7 +3284,7 @@
       </c>
       <c r="AP5" t="s" s="19">
         <f>IF(AR5="Point-To-Point","HBM_"&amp;AU5&amp;"_DA"&amp;AS5,IF(AR5="Multi-Drop","HBM_"&amp;AT5&amp;"_DA"&amp;AS5,IF(AR5="High-Z","",IF(AN5="","",RIGHT(AN5,LEN(AN5)-3)))))</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AQ5" t="s" s="19">
         <f>IF(AO5="inout","inout",IF(AO5="input","output",IF(AO5="output","input","")))</f>
@@ -3298,11 +3307,11 @@
       </c>
       <c r="AY5" t="s" s="8">
         <f>IF(F5="","",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AZ5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY5)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BA5" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP5)),TRIM(BC5))</f>
@@ -3310,18 +3319,18 @@
       </c>
       <c r="BB5" t="s" s="8">
         <f>IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)-3))</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BC5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB5)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BD5" s="23"/>
       <c r="BE5" s="23"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="8">
         <v>58</v>
@@ -3333,10 +3342,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s" s="10">
         <v>63</v>
@@ -3395,7 +3404,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" t="s" s="13">
         <f>IF(OR(F6="",LEFT(F6,3)="NC_"),"",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AI6" t="s" s="14">
         <f>IF(LEFT(F6,3)="NC_","",IF(OR(A6="Top die - C4 bump",A6="Top die - HBM"),IF(G6="inout","inout",IF(G6="input","output",IF(G6="output","input"))),""))</f>
@@ -3406,7 +3415,7 @@
         <f>IF(A6="HBM - C4 bump","inout",IF(A6="Top die - HBM",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input"))),""))</f>
       </c>
       <c r="AL6" t="s" s="17">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="18">
         <f>IF(A6="Top die - C4 bump",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input",""))),IF(A6="HBM - C4 bump",IF(AK6="inout","inout",IF(AK6="input","output",IF(AK6="output","input"))),""))</f>
@@ -3414,7 +3423,7 @@
       </c>
       <c r="AN6" t="s" s="19">
         <f>AL6</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO6" t="s" s="19">
         <f>IF(AM6="inout","inout",IF(AM6="input","output",IF(AM6="output","input","")))</f>
@@ -3422,7 +3431,7 @@
       </c>
       <c r="AP6" t="s" s="19">
         <f>IF(AR6="Point-To-Point","HBM_"&amp;AU6&amp;"_DA"&amp;AS6,IF(AR6="Multi-Drop","HBM_"&amp;AT6&amp;"_DA"&amp;AS6,IF(AR6="High-Z","",IF(AN6="","",RIGHT(AN6,LEN(AN6)-3)))))</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ6" t="s" s="19">
         <f>IF(AO6="inout","inout",IF(AO6="input","output",IF(AO6="output","input","")))</f>
@@ -3445,11 +3454,11 @@
       </c>
       <c r="AY6" t="s" s="8">
         <f>IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AZ6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY6)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BA6" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP6)),TRIM(BC6))</f>
@@ -3457,18 +3466,18 @@
       </c>
       <c r="BB6" t="s" s="8">
         <f>IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)-3))</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BC6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB6)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BD6" s="23"/>
       <c r="BE6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>58</v>
@@ -3480,10 +3489,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>63</v>
@@ -3492,7 +3501,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -3544,7 +3553,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" t="s" s="13">
         <f>IF(OR(F7="",LEFT(F7,3)="NC_"),"",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI7" t="s" s="14">
         <f>IF(LEFT(F7,3)="NC_","",IF(OR(A7="Top die - C4 bump",A7="Top die - HBM"),IF(G7="inout","inout",IF(G7="input","output",IF(G7="output","input"))),""))</f>
@@ -3555,7 +3564,7 @@
         <f>IF(A7="HBM - C4 bump","inout",IF(A7="Top die - HBM",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input"))),""))</f>
       </c>
       <c r="AL7" t="s" s="17">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM7" t="s" s="18">
         <f>IF(A7="Top die - C4 bump",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input",""))),IF(A7="HBM - C4 bump",IF(AK7="inout","inout",IF(AK7="input","output",IF(AK7="output","input"))),""))</f>
@@ -3563,7 +3572,7 @@
       </c>
       <c r="AN7" t="s" s="19">
         <f>AL7</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AO7" t="s" s="19">
         <f>IF(AM7="inout","inout",IF(AM7="input","output",IF(AM7="output","input","")))</f>
@@ -3571,7 +3580,7 @@
       </c>
       <c r="AP7" t="s" s="19">
         <f>IF(AR7="Point-To-Point","HBM_"&amp;AU7&amp;"_DA"&amp;AS7,IF(AR7="Multi-Drop","HBM_"&amp;AT7&amp;"_DA"&amp;AS7,IF(AR7="High-Z","",IF(AN7="","",RIGHT(AN7,LEN(AN7)-3)))))</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AQ7" t="s" s="19">
         <f>IF(AO7="inout","inout",IF(AO7="input","output",IF(AO7="output","input","")))</f>
@@ -3594,11 +3603,11 @@
       </c>
       <c r="AY7" t="s" s="8">
         <f>IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AZ7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY7)</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BA7" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP7)),TRIM(BC7))</f>
@@ -3606,18 +3615,18 @@
       </c>
       <c r="BB7" t="s" s="8">
         <f>IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)-3))</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BC7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB7)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="8">
         <v>58</v>
@@ -3629,10 +3638,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>63</v>
@@ -3691,7 +3700,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" t="s" s="13">
         <f>IF(OR(F8="",LEFT(F8,3)="NC_"),"",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
@@ -3702,7 +3711,7 @@
         <f>IF(A8="HBM - C4 bump","inout",IF(A8="Top die - HBM",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input"))),""))</f>
       </c>
       <c r="AL8" t="s" s="17">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
@@ -3710,7 +3719,7 @@
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
@@ -3718,7 +3727,7 @@
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
@@ -3741,11 +3750,11 @@
       </c>
       <c r="AY8" t="s" s="8">
         <f>IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3753,18 +3762,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3776,10 +3785,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3838,7 +3847,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
@@ -3849,7 +3858,7 @@
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
@@ -3857,7 +3866,7 @@
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
@@ -3865,7 +3874,7 @@
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
@@ -3888,11 +3897,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3900,33 +3909,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3955,10 +3964,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -3985,11 +3994,11 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
@@ -4000,7 +4009,7 @@
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
@@ -4008,7 +4017,7 @@
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
@@ -4016,7 +4025,7 @@
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
@@ -4039,11 +4048,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4051,33 +4060,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4106,10 +4115,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4136,11 +4145,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4151,7 +4160,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4159,7 +4168,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4167,7 +4176,7 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
@@ -4190,11 +4199,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4202,36 +4211,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4261,7 +4270,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4289,38 +4298,38 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR12" s="20"/>
       <c r="AS12" s="19"/>
@@ -4339,11 +4348,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4351,36 +4360,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4410,7 +4419,7 @@
         <v>65</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4438,38 +4447,38 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="19"/>
@@ -4488,11 +4497,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4500,36 +4509,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4559,7 +4568,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4585,42 +4594,42 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="19"/>
@@ -4639,11 +4648,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4651,36 +4660,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4710,7 +4719,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4736,42 +4745,42 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="19"/>
@@ -4790,11 +4799,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4802,36 +4811,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4861,7 +4870,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4887,42 +4896,42 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="19"/>
@@ -4941,11 +4950,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4953,36 +4962,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -5012,7 +5021,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5038,42 +5047,42 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="19"/>
@@ -5092,11 +5101,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5104,36 +5113,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5179,54 +5188,54 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="19"/>
@@ -5247,25 +5256,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5311,54 +5320,54 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="19"/>
@@ -5379,25 +5388,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5443,54 +5452,54 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="19"/>
@@ -5511,25 +5520,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5575,54 +5584,54 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="19"/>
@@ -5643,26 +5652,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5734,26 +5743,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>

--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -397,59 +397,72 @@
     </r>
   </si>
   <si>
+    <t>Top die - C4 bump-4</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tdi_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TDI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TDI</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TDI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TDI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TDI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F5="","",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TDI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tdi_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TDI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TDI</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TDI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TDI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F5="","",IF(A5="Top die - HBM","SII_L_"&amp;F5,"L_"&amp;F5))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TDI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_trst_iobuf.igenblk1._gpio_tap</t>
@@ -3261,7 +3274,6 @@
       </c>
       <c r="AI5" t="s" s="14">
         <f>IF(LEFT(F5,3)="NC_","",IF(OR(A5="Top die - C4 bump",A5="Top die - HBM"),IF(G5="inout","inout",IF(G5="input","output",IF(G5="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ5" s="15"/>
       <c r="AK5" t="s" s="16">
@@ -3272,7 +3284,6 @@
       </c>
       <c r="AM5" t="s" s="18">
         <f>IF(A5="Top die - C4 bump",IF(AI5="inout","inout",IF(AI5="input","output",IF(AI5="output","input",""))),IF(A5="HBM - C4 bump",IF(AK5="inout","inout",IF(AK5="input","output",IF(AK5="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN5" t="s" s="19">
         <f>AL5</f>
@@ -3280,15 +3291,13 @@
       </c>
       <c r="AO5" t="s" s="19">
         <f>IF(AM5="inout","inout",IF(AM5="input","output",IF(AM5="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP5" t="s" s="19">
         <f>IF(AR5="Point-To-Point","HBM_"&amp;AU5&amp;"_DA"&amp;AS5,IF(AR5="Multi-Drop","HBM_"&amp;AT5&amp;"_DA"&amp;AS5,IF(AR5="High-Z","",IF(AN5="","",RIGHT(AN5,LEN(AN5)-3)))))</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AQ5" t="s" s="19">
         <f>IF(AO5="inout","inout",IF(AO5="input","output",IF(AO5="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR5" s="20"/>
       <c r="AS5" s="19"/>
@@ -3311,7 +3320,7 @@
       </c>
       <c r="AZ5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY5)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BA5" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP5)),TRIM(BC5))</f>
@@ -3319,18 +3328,18 @@
       </c>
       <c r="BB5" t="s" s="8">
         <f>IF(AN5="","","C_"&amp;RIGHT(AN5,LEN(AN5)-3))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB5)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BD5" s="23"/>
       <c r="BE5" s="23"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="8">
         <v>58</v>
@@ -3342,10 +3351,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s" s="10">
         <v>63</v>
@@ -3404,7 +3413,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" t="s" s="13">
         <f>IF(OR(F6="",LEFT(F6,3)="NC_"),"",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AI6" t="s" s="14">
         <f>IF(LEFT(F6,3)="NC_","",IF(OR(A6="Top die - C4 bump",A6="Top die - HBM"),IF(G6="inout","inout",IF(G6="input","output",IF(G6="output","input"))),""))</f>
@@ -3415,7 +3424,7 @@
         <f>IF(A6="HBM - C4 bump","inout",IF(A6="Top die - HBM",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input"))),""))</f>
       </c>
       <c r="AL6" t="s" s="17">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="18">
         <f>IF(A6="Top die - C4 bump",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input",""))),IF(A6="HBM - C4 bump",IF(AK6="inout","inout",IF(AK6="input","output",IF(AK6="output","input"))),""))</f>
@@ -3423,7 +3432,7 @@
       </c>
       <c r="AN6" t="s" s="19">
         <f>AL6</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO6" t="s" s="19">
         <f>IF(AM6="inout","inout",IF(AM6="input","output",IF(AM6="output","input","")))</f>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="AP6" t="s" s="19">
         <f>IF(AR6="Point-To-Point","HBM_"&amp;AU6&amp;"_DA"&amp;AS6,IF(AR6="Multi-Drop","HBM_"&amp;AT6&amp;"_DA"&amp;AS6,IF(AR6="High-Z","",IF(AN6="","",RIGHT(AN6,LEN(AN6)-3)))))</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AQ6" t="s" s="19">
         <f>IF(AO6="inout","inout",IF(AO6="input","output",IF(AO6="output","input","")))</f>
@@ -3454,11 +3463,11 @@
       </c>
       <c r="AY6" t="s" s="8">
         <f>IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AZ6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY6)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BA6" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP6)),TRIM(BC6))</f>
@@ -3466,18 +3475,18 @@
       </c>
       <c r="BB6" t="s" s="8">
         <f>IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)-3))</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BC6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB6)</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BD6" s="23"/>
       <c r="BE6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>58</v>
@@ -3489,10 +3498,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>63</v>
@@ -3501,7 +3510,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -3553,7 +3562,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" t="s" s="13">
         <f>IF(OR(F7="",LEFT(F7,3)="NC_"),"",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AI7" t="s" s="14">
         <f>IF(LEFT(F7,3)="NC_","",IF(OR(A7="Top die - C4 bump",A7="Top die - HBM"),IF(G7="inout","inout",IF(G7="input","output",IF(G7="output","input"))),""))</f>
@@ -3564,7 +3573,7 @@
         <f>IF(A7="HBM - C4 bump","inout",IF(A7="Top die - HBM",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input"))),""))</f>
       </c>
       <c r="AL7" t="s" s="17">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="s" s="18">
         <f>IF(A7="Top die - C4 bump",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input",""))),IF(A7="HBM - C4 bump",IF(AK7="inout","inout",IF(AK7="input","output",IF(AK7="output","input"))),""))</f>
@@ -3572,7 +3581,7 @@
       </c>
       <c r="AN7" t="s" s="19">
         <f>AL7</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO7" t="s" s="19">
         <f>IF(AM7="inout","inout",IF(AM7="input","output",IF(AM7="output","input","")))</f>
@@ -3580,7 +3589,7 @@
       </c>
       <c r="AP7" t="s" s="19">
         <f>IF(AR7="Point-To-Point","HBM_"&amp;AU7&amp;"_DA"&amp;AS7,IF(AR7="Multi-Drop","HBM_"&amp;AT7&amp;"_DA"&amp;AS7,IF(AR7="High-Z","",IF(AN7="","",RIGHT(AN7,LEN(AN7)-3)))))</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AQ7" t="s" s="19">
         <f>IF(AO7="inout","inout",IF(AO7="input","output",IF(AO7="output","input","")))</f>
@@ -3603,11 +3612,11 @@
       </c>
       <c r="AY7" t="s" s="8">
         <f>IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AZ7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY7)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BA7" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP7)),TRIM(BC7))</f>
@@ -3615,18 +3624,18 @@
       </c>
       <c r="BB7" t="s" s="8">
         <f>IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)-3))</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BC7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB7)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="8">
         <v>58</v>
@@ -3638,10 +3647,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>63</v>
@@ -3700,7 +3709,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" t="s" s="13">
         <f>IF(OR(F8="",LEFT(F8,3)="NC_"),"",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
@@ -3711,7 +3720,7 @@
         <f>IF(A8="HBM - C4 bump","inout",IF(A8="Top die - HBM",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input"))),""))</f>
       </c>
       <c r="AL8" t="s" s="17">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
@@ -3719,7 +3728,7 @@
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
@@ -3727,7 +3736,7 @@
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
@@ -3750,11 +3759,11 @@
       </c>
       <c r="AY8" t="s" s="8">
         <f>IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3762,18 +3771,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3785,10 +3794,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3847,7 +3856,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
@@ -3858,7 +3867,7 @@
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
@@ -3866,7 +3875,7 @@
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
@@ -3874,7 +3883,7 @@
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
@@ -3897,11 +3906,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3909,33 +3918,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3964,10 +3973,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -3994,11 +4003,11 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
@@ -4009,7 +4018,7 @@
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
@@ -4017,7 +4026,7 @@
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
@@ -4025,7 +4034,7 @@
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
@@ -4048,11 +4057,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4060,33 +4069,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4115,10 +4124,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4145,11 +4154,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4160,7 +4169,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4168,7 +4177,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4211,36 +4220,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4270,7 +4279,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4298,38 +4307,38 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR12" s="20"/>
       <c r="AS12" s="19"/>
@@ -4348,11 +4357,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4360,36 +4369,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4419,7 +4428,7 @@
         <v>65</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4447,38 +4456,38 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="19"/>
@@ -4497,11 +4506,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4509,36 +4518,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4568,7 +4577,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4594,42 +4603,42 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="19"/>
@@ -4648,11 +4657,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4660,36 +4669,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4719,7 +4728,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4745,42 +4754,42 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="19"/>
@@ -4799,11 +4808,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4811,36 +4820,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4870,7 +4879,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4896,42 +4905,42 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="19"/>
@@ -4950,11 +4959,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4962,36 +4971,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -5021,7 +5030,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5047,42 +5056,42 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="19"/>
@@ -5101,11 +5110,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5113,36 +5122,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5188,54 +5197,54 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="19"/>
@@ -5256,25 +5265,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5320,54 +5329,54 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="19"/>
@@ -5388,25 +5397,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5452,54 +5461,54 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="19"/>
@@ -5520,25 +5529,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5584,54 +5593,54 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="19"/>
@@ -5652,26 +5661,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5743,26 +5752,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>

--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -462,114 +462,140 @@
     </r>
   </si>
   <si>
+    <t>Top die - C4 bump-5</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_trst_iobuf.igenblk1._gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TRST_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TRST_L</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TRST_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TRST_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TRST_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TRST_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)−3))</t>
+    </r>
+  </si>
+  <si>
+    <t>Top die - C4 bump-6</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_pad_tdo_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TDO</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TDO</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TDO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TDO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TDO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TDO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_trst_iobuf.igenblk1._gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TRST_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TRST_L</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TRST_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TRST_L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F6="","",IF(A6="Top die - HBM","SII_L_"&amp;F6,"L_"&amp;F6))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TRST_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)−3))</t>
-    </r>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_pad_tdo_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TDO</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TDO</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TDO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TDO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TDO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tr_tck_iobuf.genblk1.i_gpio_tap</t>
@@ -3417,7 +3443,6 @@
       </c>
       <c r="AI6" t="s" s="14">
         <f>IF(LEFT(F6,3)="NC_","",IF(OR(A6="Top die - C4 bump",A6="Top die - HBM"),IF(G6="inout","inout",IF(G6="input","output",IF(G6="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" t="s" s="16">
@@ -3428,7 +3453,6 @@
       </c>
       <c r="AM6" t="s" s="18">
         <f>IF(A6="Top die - C4 bump",IF(AI6="inout","inout",IF(AI6="input","output",IF(AI6="output","input",""))),IF(A6="HBM - C4 bump",IF(AK6="inout","inout",IF(AK6="input","output",IF(AK6="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN6" t="s" s="19">
         <f>AL6</f>
@@ -3436,15 +3460,13 @@
       </c>
       <c r="AO6" t="s" s="19">
         <f>IF(AM6="inout","inout",IF(AM6="input","output",IF(AM6="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP6" t="s" s="19">
         <f>IF(AR6="Point-To-Point","HBM_"&amp;AU6&amp;"_DA"&amp;AS6,IF(AR6="Multi-Drop","HBM_"&amp;AT6&amp;"_DA"&amp;AS6,IF(AR6="High-Z","",IF(AN6="","",RIGHT(AN6,LEN(AN6)-3)))))</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AQ6" t="s" s="19">
         <f>IF(AO6="inout","inout",IF(AO6="input","output",IF(AO6="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR6" s="20"/>
       <c r="AS6" s="19"/>
@@ -3467,7 +3489,7 @@
       </c>
       <c r="AZ6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY6)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BA6" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP6)),TRIM(BC6))</f>
@@ -3475,18 +3497,18 @@
       </c>
       <c r="BB6" t="s" s="8">
         <f>IF(AN6="","","C_"&amp;RIGHT(AN6,LEN(AN6)-3))</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BC6" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB6)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BD6" s="23"/>
       <c r="BE6" s="23"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>58</v>
@@ -3498,10 +3520,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>63</v>
@@ -3510,7 +3532,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -3562,38 +3584,34 @@
       <c r="AG7" s="11"/>
       <c r="AH7" t="s" s="13">
         <f>IF(OR(F7="",LEFT(F7,3)="NC_"),"",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI7" t="s" s="14">
         <f>IF(LEFT(F7,3)="NC_","",IF(OR(A7="Top die - C4 bump",A7="Top die - HBM"),IF(G7="inout","inout",IF(G7="input","output",IF(G7="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ7" s="15"/>
       <c r="AK7" t="s" s="16">
         <f>IF(A7="HBM - C4 bump","inout",IF(A7="Top die - HBM",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input"))),""))</f>
       </c>
       <c r="AL7" t="s" s="17">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM7" t="s" s="18">
         <f>IF(A7="Top die - C4 bump",IF(AI7="inout","inout",IF(AI7="input","output",IF(AI7="output","input",""))),IF(A7="HBM - C4 bump",IF(AK7="inout","inout",IF(AK7="input","output",IF(AK7="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN7" t="s" s="19">
         <f>AL7</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO7" t="s" s="19">
         <f>IF(AM7="inout","inout",IF(AM7="input","output",IF(AM7="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP7" t="s" s="19">
         <f>IF(AR7="Point-To-Point","HBM_"&amp;AU7&amp;"_DA"&amp;AS7,IF(AR7="Multi-Drop","HBM_"&amp;AT7&amp;"_DA"&amp;AS7,IF(AR7="High-Z","",IF(AN7="","",RIGHT(AN7,LEN(AN7)-3)))))</f>
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AQ7" t="s" s="19">
         <f>IF(AO7="inout","inout",IF(AO7="input","output",IF(AO7="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR7" s="20"/>
       <c r="AS7" s="19"/>
@@ -3612,11 +3630,11 @@
       </c>
       <c r="AY7" t="s" s="8">
         <f>IF(F7="","",IF(A7="Top die - HBM","SII_L_"&amp;F7,"L_"&amp;F7))</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AZ7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY7)</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BA7" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP7)),TRIM(BC7))</f>
@@ -3624,18 +3642,18 @@
       </c>
       <c r="BB7" t="s" s="8">
         <f>IF(AN7="","","C_"&amp;RIGHT(AN7,LEN(AN7)-3))</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BC7" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB7)</f>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="8">
         <v>58</v>
@@ -3647,10 +3665,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>63</v>
@@ -3709,7 +3727,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" t="s" s="13">
         <f>IF(OR(F8="",LEFT(F8,3)="NC_"),"",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
@@ -3720,7 +3738,7 @@
         <f>IF(A8="HBM - C4 bump","inout",IF(A8="Top die - HBM",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input"))),""))</f>
       </c>
       <c r="AL8" t="s" s="17">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
@@ -3728,7 +3746,7 @@
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
@@ -3736,7 +3754,7 @@
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
@@ -3759,11 +3777,11 @@
       </c>
       <c r="AY8" t="s" s="8">
         <f>IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3771,18 +3789,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3794,10 +3812,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3856,7 +3874,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
@@ -3867,7 +3885,7 @@
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
@@ -3875,7 +3893,7 @@
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
@@ -3883,7 +3901,7 @@
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
@@ -3906,11 +3924,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3918,33 +3936,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3973,10 +3991,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -4003,11 +4021,11 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
@@ -4018,7 +4036,7 @@
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
@@ -4026,7 +4044,7 @@
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
@@ -4034,7 +4052,7 @@
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
@@ -4057,11 +4075,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4069,33 +4087,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4124,10 +4142,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4154,11 +4172,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4169,7 +4187,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4177,7 +4195,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4185,7 +4203,7 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
@@ -4208,11 +4226,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4220,36 +4238,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4279,7 +4297,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4307,38 +4325,38 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR12" s="20"/>
       <c r="AS12" s="19"/>
@@ -4357,11 +4375,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4369,36 +4387,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4428,7 +4446,7 @@
         <v>65</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4456,38 +4474,38 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="19"/>
@@ -4506,11 +4524,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4518,36 +4536,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4577,7 +4595,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4603,42 +4621,42 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="19"/>
@@ -4657,11 +4675,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4669,36 +4687,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4728,7 +4746,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4754,42 +4772,42 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="19"/>
@@ -4808,11 +4826,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4820,36 +4838,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4879,7 +4897,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4905,42 +4923,42 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="19"/>
@@ -4959,11 +4977,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4971,36 +4989,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -5030,7 +5048,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5056,42 +5074,42 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="19"/>
@@ -5110,11 +5128,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5122,36 +5140,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5197,54 +5215,54 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="19"/>
@@ -5265,25 +5283,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5329,54 +5347,54 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="19"/>
@@ -5397,25 +5415,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5461,54 +5479,54 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="19"/>
@@ -5529,25 +5547,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5593,54 +5611,54 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="19"/>
@@ -5661,26 +5679,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5752,26 +5770,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>

--- a/avner-excel.xlsx
+++ b/avner-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>Source-Dest type</t>
   </si>
@@ -595,181 +595,220 @@
     </r>
   </si>
   <si>
+    <t>Top die - C4 bump-7</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tr_tck_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__TR_TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__TR_TCK</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__TR_TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__TR_TCK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__TR_TCK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__TR_TCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)−3))</t>
+    </r>
+  </si>
+  <si>
+    <t>Top die - C4 bump-8</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_pad_tri_l_iobuf.genblk1.i_gpio_tap</t>
+  </si>
+  <si>
+    <t>TEST__PAD_TRI_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_TEST__PAD_TRI_L</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_TEST__PAD_TRI_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_TEST__PAD_TRI_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>TEST__PAD_TRI_L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_TEST__PAD_TRI_L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)−3))</t>
+    </r>
+  </si>
+  <si>
+    <t>Top die - C4 bump-9</t>
+  </si>
+  <si>
+    <t>I2C SBUS Master</t>
+  </si>
+  <si>
+    <t>E1825V_ODTRAN</t>
+  </si>
+  <si>
+    <t>periphery_top_i2c_io_wrap</t>
+  </si>
+  <si>
+    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_twi_sbus_master_sda.genblk1.i_gpio_odtran</t>
+  </si>
+  <si>
+    <t>I2C_PERIPH_SBUS_M_SDA</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i2c_periph_sbus_master</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L_I2C_PERIPH_SBUS_M_SDA</t>
+    </r>
+  </si>
+  <si>
+    <t>C4_I2C_PERIPH_SBUS_M_SDA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C4_I2C_PERIPH_SBUS_M_SDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>I2C_PERIPH_SBUS_M_SDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</t>
+    </r>
+  </si>
+  <si>
+    <t>C_I2C_PERIPH_SBUS_M_SDA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)−3))</t>
+    </r>
+  </si>
+  <si>
     <t>Top die - C4 bump</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_tr_tck_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__TR_TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__TR_TCK</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__TR_TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__TR_TCK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F8="","",IF(A8="Top die - HBM","SII_L_"&amp;F8,"L_"&amp;F8))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__TR_TCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)−3))</t>
-    </r>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_jtag_tap_io_wrap.tap_pad_tri_l_iobuf.genblk1.i_gpio_tap</t>
-  </si>
-  <si>
-    <t>TEST__PAD_TRI_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_TEST__PAD_TRI_L</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_TEST__PAD_TRI_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_TEST__PAD_TRI_L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_TEST__PAD_TRI_L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)−3))</t>
-    </r>
-  </si>
-  <si>
-    <t>I2C SBUS Master</t>
-  </si>
-  <si>
-    <t>E1825V_ODTRAN</t>
-  </si>
-  <si>
-    <t>periphery_top_i2c_io_wrap</t>
-  </si>
-  <si>
-    <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_twi_sbus_master_sda.genblk1.i_gpio_odtran</t>
-  </si>
-  <si>
-    <t>I2C_PERIPH_SBUS_M_SDA</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>0x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i2c_periph_sbus_master</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L_I2C_PERIPH_SBUS_M_SDA</t>
-    </r>
-  </si>
-  <si>
-    <t>C4_I2C_PERIPH_SBUS_M_SDA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C4_I2C_PERIPH_SBUS_M_SDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</t>
-    </r>
-  </si>
-  <si>
-    <t>C_I2C_PERIPH_SBUS_M_SDA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)−3))</t>
-    </r>
   </si>
   <si>
     <t>i_next_top.i_periphery_top.i_periphery_top_i2c_io_wrap.i_twi_sbus_master_scl.genblk1.i_gpio_odtran</t>
@@ -3731,7 +3770,6 @@
       </c>
       <c r="AI8" t="s" s="14">
         <f>IF(LEFT(F8,3)="NC_","",IF(OR(A8="Top die - C4 bump",A8="Top die - HBM"),IF(G8="inout","inout",IF(G8="input","output",IF(G8="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ8" s="15"/>
       <c r="AK8" t="s" s="16">
@@ -3742,7 +3780,6 @@
       </c>
       <c r="AM8" t="s" s="18">
         <f>IF(A8="Top die - C4 bump",IF(AI8="inout","inout",IF(AI8="input","output",IF(AI8="output","input",""))),IF(A8="HBM - C4 bump",IF(AK8="inout","inout",IF(AK8="input","output",IF(AK8="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN8" t="s" s="19">
         <f>AL8</f>
@@ -3750,15 +3787,13 @@
       </c>
       <c r="AO8" t="s" s="19">
         <f>IF(AM8="inout","inout",IF(AM8="input","output",IF(AM8="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP8" t="s" s="19">
         <f>IF(AR8="Point-To-Point","HBM_"&amp;AU8&amp;"_DA"&amp;AS8,IF(AR8="Multi-Drop","HBM_"&amp;AT8&amp;"_DA"&amp;AS8,IF(AR8="High-Z","",IF(AN8="","",RIGHT(AN8,LEN(AN8)-3)))))</f>
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ8" t="s" s="19">
         <f>IF(AO8="inout","inout",IF(AO8="input","output",IF(AO8="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR8" s="20"/>
       <c r="AS8" s="19"/>
@@ -3781,7 +3816,7 @@
       </c>
       <c r="AZ8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY8)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA8" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP8)),TRIM(BC8))</f>
@@ -3789,18 +3824,18 @@
       </c>
       <c r="BB8" t="s" s="8">
         <f>IF(AN8="","","C_"&amp;RIGHT(AN8,LEN(AN8)-3))</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC8" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB8)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>58</v>
@@ -3812,10 +3847,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>63</v>
@@ -3874,38 +3909,34 @@
       <c r="AG9" s="11"/>
       <c r="AH9" t="s" s="13">
         <f>IF(OR(F9="",LEFT(F9,3)="NC_"),"",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AI9" t="s" s="14">
         <f>IF(LEFT(F9,3)="NC_","",IF(OR(A9="Top die - C4 bump",A9="Top die - HBM"),IF(G9="inout","inout",IF(G9="input","output",IF(G9="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" t="s" s="16">
         <f>IF(A9="HBM - C4 bump","inout",IF(A9="Top die - HBM",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input"))),""))</f>
       </c>
       <c r="AL9" t="s" s="17">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM9" t="s" s="18">
         <f>IF(A9="Top die - C4 bump",IF(AI9="inout","inout",IF(AI9="input","output",IF(AI9="output","input",""))),IF(A9="HBM - C4 bump",IF(AK9="inout","inout",IF(AK9="input","output",IF(AK9="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN9" t="s" s="19">
         <f>AL9</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO9" t="s" s="19">
         <f>IF(AM9="inout","inout",IF(AM9="input","output",IF(AM9="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP9" t="s" s="19">
         <f>IF(AR9="Point-To-Point","HBM_"&amp;AU9&amp;"_DA"&amp;AS9,IF(AR9="Multi-Drop","HBM_"&amp;AT9&amp;"_DA"&amp;AS9,IF(AR9="High-Z","",IF(AN9="","",RIGHT(AN9,LEN(AN9)-3)))))</f>
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ9" t="s" s="19">
         <f>IF(AO9="inout","inout",IF(AO9="input","output",IF(AO9="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR9" s="20"/>
       <c r="AS9" s="19"/>
@@ -3924,11 +3955,11 @@
       </c>
       <c r="AY9" t="s" s="8">
         <f>IF(F9="","",IF(A9="Top die - HBM","SII_L_"&amp;F9,"L_"&amp;F9))</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AZ9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY9)</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BA9" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP9)),TRIM(BC9))</f>
@@ -3936,33 +3967,33 @@
       </c>
       <c r="BB9" t="s" s="8">
         <f>IF(AN9="","","C_"&amp;RIGHT(AN9,LEN(AN9)-3))</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BC9" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB9)</f>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s" s="9">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>63</v>
@@ -3991,10 +4022,10 @@
         <v>65</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" t="s" s="10">
@@ -4021,42 +4052,38 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AH10" t="s" s="13">
         <f>IF(OR(F10="",LEFT(F10,3)="NC_"),"",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AI10" t="s" s="14">
         <f>IF(LEFT(F10,3)="NC_","",IF(OR(A10="Top die - C4 bump",A10="Top die - HBM"),IF(G10="inout","inout",IF(G10="input","output",IF(G10="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" t="s" s="16">
         <f>IF(A10="HBM - C4 bump","inout",IF(A10="Top die - HBM",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input"))),""))</f>
       </c>
       <c r="AL10" t="s" s="17">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM10" t="s" s="18">
         <f>IF(A10="Top die - C4 bump",IF(AI10="inout","inout",IF(AI10="input","output",IF(AI10="output","input",""))),IF(A10="HBM - C4 bump",IF(AK10="inout","inout",IF(AK10="input","output",IF(AK10="output","input"))),""))</f>
-        <v>63</v>
       </c>
       <c r="AN10" t="s" s="19">
         <f>AL10</f>
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AO10" t="s" s="19">
         <f>IF(AM10="inout","inout",IF(AM10="input","output",IF(AM10="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AP10" t="s" s="19">
         <f>IF(AR10="Point-To-Point","HBM_"&amp;AU10&amp;"_DA"&amp;AS10,IF(AR10="Multi-Drop","HBM_"&amp;AT10&amp;"_DA"&amp;AS10,IF(AR10="High-Z","",IF(AN10="","",RIGHT(AN10,LEN(AN10)-3)))))</f>
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ10" t="s" s="19">
         <f>IF(AO10="inout","inout",IF(AO10="input","output",IF(AO10="output","input","")))</f>
-        <v>63</v>
       </c>
       <c r="AR10" s="20"/>
       <c r="AS10" s="19"/>
@@ -4075,11 +4102,11 @@
       </c>
       <c r="AY10" t="s" s="8">
         <f>IF(F10="","",IF(A10="Top die - HBM","SII_L_"&amp;F10,"L_"&amp;F10))</f>
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AZ10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY10)</f>
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="BA10" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP10)),TRIM(BC10))</f>
@@ -4087,33 +4114,33 @@
       </c>
       <c r="BB10" t="s" s="8">
         <f>IF(AN10="","","C_"&amp;RIGHT(AN10,LEN(AN10)-3))</f>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC10" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB10)</f>
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s" s="9">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>63</v>
@@ -4142,10 +4169,10 @@
         <v>65</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" t="s" s="10">
@@ -4172,11 +4199,11 @@
         <v>65</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AH11" t="s" s="13">
         <f>IF(OR(F11="",LEFT(F11,3)="NC_"),"",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI11" t="s" s="14">
         <f>IF(LEFT(F11,3)="NC_","",IF(OR(A11="Top die - C4 bump",A11="Top die - HBM"),IF(G11="inout","inout",IF(G11="input","output",IF(G11="output","input"))),""))</f>
@@ -4187,7 +4214,7 @@
         <f>IF(A11="HBM - C4 bump","inout",IF(A11="Top die - HBM",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input"))),""))</f>
       </c>
       <c r="AL11" t="s" s="17">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AM11" t="s" s="18">
         <f>IF(A11="Top die - C4 bump",IF(AI11="inout","inout",IF(AI11="input","output",IF(AI11="output","input",""))),IF(A11="HBM - C4 bump",IF(AK11="inout","inout",IF(AK11="input","output",IF(AK11="output","input"))),""))</f>
@@ -4195,7 +4222,7 @@
       </c>
       <c r="AN11" t="s" s="19">
         <f>AL11</f>
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AO11" t="s" s="19">
         <f>IF(AM11="inout","inout",IF(AM11="input","output",IF(AM11="output","input","")))</f>
@@ -4203,7 +4230,7 @@
       </c>
       <c r="AP11" t="s" s="19">
         <f>IF(AR11="Point-To-Point","HBM_"&amp;AU11&amp;"_DA"&amp;AS11,IF(AR11="Multi-Drop","HBM_"&amp;AT11&amp;"_DA"&amp;AS11,IF(AR11="High-Z","",IF(AN11="","",RIGHT(AN11,LEN(AN11)-3)))))</f>
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AQ11" t="s" s="19">
         <f>IF(AO11="inout","inout",IF(AO11="input","output",IF(AO11="output","input","")))</f>
@@ -4226,11 +4253,11 @@
       </c>
       <c r="AY11" t="s" s="8">
         <f>IF(F11="","",IF(A11="Top die - HBM","SII_L_"&amp;F11,"L_"&amp;F11))</f>
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AZ11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY11)</f>
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="BA11" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP11)),TRIM(BC11))</f>
@@ -4238,36 +4265,36 @@
       </c>
       <c r="BB11" t="s" s="8">
         <f>IF(AN11="","","C_"&amp;RIGHT(AN11,LEN(AN11)-3))</f>
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="BC11" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB11)</f>
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s" s="9">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s" s="10">
         <v>64</v>
@@ -4325,38 +4352,38 @@
       <c r="AG12" s="11"/>
       <c r="AH12" t="s" s="13">
         <f>IF(OR(F12="",LEFT(F12,3)="NC_"),"",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AI12" t="s" s="14">
         <f>IF(LEFT(F12,3)="NC_","",IF(OR(A12="Top die - C4 bump",A12="Top die - HBM"),IF(G12="inout","inout",IF(G12="input","output",IF(G12="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" t="s" s="16">
         <f>IF(A12="HBM - C4 bump","inout",IF(A12="Top die - HBM",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input"))),""))</f>
       </c>
       <c r="AL12" t="s" s="17">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AM12" t="s" s="18">
         <f>IF(A12="Top die - C4 bump",IF(AI12="inout","inout",IF(AI12="input","output",IF(AI12="output","input",""))),IF(A12="HBM - C4 bump",IF(AK12="inout","inout",IF(AK12="input","output",IF(AK12="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN12" t="s" s="19">
         <f>AL12</f>
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AO12" t="s" s="19">
         <f>IF(AM12="inout","inout",IF(AM12="input","output",IF(AM12="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP12" t="s" s="19">
         <f>IF(AR12="Point-To-Point","HBM_"&amp;AU12&amp;"_DA"&amp;AS12,IF(AR12="Multi-Drop","HBM_"&amp;AT12&amp;"_DA"&amp;AS12,IF(AR12="High-Z","",IF(AN12="","",RIGHT(AN12,LEN(AN12)-3)))))</f>
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AQ12" t="s" s="19">
         <f>IF(AO12="inout","inout",IF(AO12="input","output",IF(AO12="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR12" s="20"/>
       <c r="AS12" s="19"/>
@@ -4375,11 +4402,11 @@
       </c>
       <c r="AY12" t="s" s="8">
         <f>IF(F12="","",IF(A12="Top die - HBM","SII_L_"&amp;F12,"L_"&amp;F12))</f>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AZ12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY12)</f>
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="BA12" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP12)),TRIM(BC12))</f>
@@ -4387,36 +4414,36 @@
       </c>
       <c r="BB12" t="s" s="8">
         <f>IF(AN12="","","C_"&amp;RIGHT(AN12,LEN(AN12)-3))</f>
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="BC12" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB12)</f>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s" s="10">
         <v>64</v>
@@ -4474,38 +4501,38 @@
       <c r="AG13" s="11"/>
       <c r="AH13" t="s" s="13">
         <f>IF(OR(F13="",LEFT(F13,3)="NC_"),"",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AI13" t="s" s="14">
         <f>IF(LEFT(F13,3)="NC_","",IF(OR(A13="Top die - C4 bump",A13="Top die - HBM"),IF(G13="inout","inout",IF(G13="input","output",IF(G13="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" t="s" s="16">
         <f>IF(A13="HBM - C4 bump","inout",IF(A13="Top die - HBM",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input"))),""))</f>
       </c>
       <c r="AL13" t="s" s="17">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AM13" t="s" s="18">
         <f>IF(A13="Top die - C4 bump",IF(AI13="inout","inout",IF(AI13="input","output",IF(AI13="output","input",""))),IF(A13="HBM - C4 bump",IF(AK13="inout","inout",IF(AK13="input","output",IF(AK13="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="19">
         <f>AL13</f>
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AO13" t="s" s="19">
         <f>IF(AM13="inout","inout",IF(AM13="input","output",IF(AM13="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP13" t="s" s="19">
         <f>IF(AR13="Point-To-Point","HBM_"&amp;AU13&amp;"_DA"&amp;AS13,IF(AR13="Multi-Drop","HBM_"&amp;AT13&amp;"_DA"&amp;AS13,IF(AR13="High-Z","",IF(AN13="","",RIGHT(AN13,LEN(AN13)-3)))))</f>
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AQ13" t="s" s="19">
         <f>IF(AO13="inout","inout",IF(AO13="input","output",IF(AO13="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="19"/>
@@ -4524,11 +4551,11 @@
       </c>
       <c r="AY13" t="s" s="8">
         <f>IF(F13="","",IF(A13="Top die - HBM","SII_L_"&amp;F13,"L_"&amp;F13))</f>
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AZ13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY13)</f>
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="BA13" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP13)),TRIM(BC13))</f>
@@ -4536,36 +4563,36 @@
       </c>
       <c r="BB13" t="s" s="8">
         <f>IF(AN13="","","C_"&amp;RIGHT(AN13,LEN(AN13)-3))</f>
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BC13" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB13)</f>
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="BD13" s="23"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s" s="9">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s" s="10">
         <v>64</v>
@@ -4595,7 +4622,7 @@
         <v>65</v>
       </c>
       <c r="U14" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -4621,42 +4648,42 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AH14" t="s" s="13">
         <f>IF(OR(F14="",LEFT(F14,3)="NC_"),"",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AI14" t="s" s="14">
         <f>IF(LEFT(F14,3)="NC_","",IF(OR(A14="Top die - C4 bump",A14="Top die - HBM"),IF(G14="inout","inout",IF(G14="input","output",IF(G14="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" t="s" s="16">
         <f>IF(A14="HBM - C4 bump","inout",IF(A14="Top die - HBM",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input"))),""))</f>
       </c>
       <c r="AL14" t="s" s="17">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AM14" t="s" s="18">
         <f>IF(A14="Top die - C4 bump",IF(AI14="inout","inout",IF(AI14="input","output",IF(AI14="output","input",""))),IF(A14="HBM - C4 bump",IF(AK14="inout","inout",IF(AK14="input","output",IF(AK14="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="19">
         <f>AL14</f>
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AO14" t="s" s="19">
         <f>IF(AM14="inout","inout",IF(AM14="input","output",IF(AM14="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP14" t="s" s="19">
         <f>IF(AR14="Point-To-Point","HBM_"&amp;AU14&amp;"_DA"&amp;AS14,IF(AR14="Multi-Drop","HBM_"&amp;AT14&amp;"_DA"&amp;AS14,IF(AR14="High-Z","",IF(AN14="","",RIGHT(AN14,LEN(AN14)-3)))))</f>
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AQ14" t="s" s="19">
         <f>IF(AO14="inout","inout",IF(AO14="input","output",IF(AO14="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="19"/>
@@ -4675,11 +4702,11 @@
       </c>
       <c r="AY14" t="s" s="8">
         <f>IF(F14="","",IF(A14="Top die - HBM","SII_L_"&amp;F14,"L_"&amp;F14))</f>
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AZ14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY14)</f>
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="BA14" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP14)),TRIM(BC14))</f>
@@ -4687,36 +4714,36 @@
       </c>
       <c r="BB14" t="s" s="8">
         <f>IF(AN14="","","C_"&amp;RIGHT(AN14,LEN(AN14)-3))</f>
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="BC14" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB14)</f>
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s" s="10">
         <v>64</v>
@@ -4746,7 +4773,7 @@
         <v>65</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -4772,42 +4799,42 @@
         <v>65</v>
       </c>
       <c r="AG15" t="s" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AH15" t="s" s="13">
         <f>IF(OR(F15="",LEFT(F15,3)="NC_"),"",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="s" s="14">
         <f>IF(LEFT(F15,3)="NC_","",IF(OR(A15="Top die - C4 bump",A15="Top die - HBM"),IF(G15="inout","inout",IF(G15="input","output",IF(G15="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" t="s" s="16">
         <f>IF(A15="HBM - C4 bump","inout",IF(A15="Top die - HBM",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input"))),""))</f>
       </c>
       <c r="AL15" t="s" s="17">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AM15" t="s" s="18">
         <f>IF(A15="Top die - C4 bump",IF(AI15="inout","inout",IF(AI15="input","output",IF(AI15="output","input",""))),IF(A15="HBM - C4 bump",IF(AK15="inout","inout",IF(AK15="input","output",IF(AK15="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="19">
         <f>AL15</f>
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AO15" t="s" s="19">
         <f>IF(AM15="inout","inout",IF(AM15="input","output",IF(AM15="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP15" t="s" s="19">
         <f>IF(AR15="Point-To-Point","HBM_"&amp;AU15&amp;"_DA"&amp;AS15,IF(AR15="Multi-Drop","HBM_"&amp;AT15&amp;"_DA"&amp;AS15,IF(AR15="High-Z","",IF(AN15="","",RIGHT(AN15,LEN(AN15)-3)))))</f>
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AQ15" t="s" s="19">
         <f>IF(AO15="inout","inout",IF(AO15="input","output",IF(AO15="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="19"/>
@@ -4826,11 +4853,11 @@
       </c>
       <c r="AY15" t="s" s="8">
         <f>IF(F15="","",IF(A15="Top die - HBM","SII_L_"&amp;F15,"L_"&amp;F15))</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AZ15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY15)</f>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BA15" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP15)),TRIM(BC15))</f>
@@ -4838,36 +4865,36 @@
       </c>
       <c r="BB15" t="s" s="8">
         <f>IF(AN15="","","C_"&amp;RIGHT(AN15,LEN(AN15)-3))</f>
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BC15" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB15)</f>
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s" s="10">
         <v>64</v>
@@ -4897,7 +4924,7 @@
         <v>65</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -4923,42 +4950,42 @@
         <v>65</v>
       </c>
       <c r="AG16" t="s" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AH16" t="s" s="13">
         <f>IF(OR(F16="",LEFT(F16,3)="NC_"),"",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AI16" t="s" s="14">
         <f>IF(LEFT(F16,3)="NC_","",IF(OR(A16="Top die - C4 bump",A16="Top die - HBM"),IF(G16="inout","inout",IF(G16="input","output",IF(G16="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" t="s" s="16">
         <f>IF(A16="HBM - C4 bump","inout",IF(A16="Top die - HBM",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input"))),""))</f>
       </c>
       <c r="AL16" t="s" s="17">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="18">
         <f>IF(A16="Top die - C4 bump",IF(AI16="inout","inout",IF(AI16="input","output",IF(AI16="output","input",""))),IF(A16="HBM - C4 bump",IF(AK16="inout","inout",IF(AK16="input","output",IF(AK16="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="19">
         <f>AL16</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="19">
         <f>IF(AM16="inout","inout",IF(AM16="input","output",IF(AM16="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP16" t="s" s="19">
         <f>IF(AR16="Point-To-Point","HBM_"&amp;AU16&amp;"_DA"&amp;AS16,IF(AR16="Multi-Drop","HBM_"&amp;AT16&amp;"_DA"&amp;AS16,IF(AR16="High-Z","",IF(AN16="","",RIGHT(AN16,LEN(AN16)-3)))))</f>
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AQ16" t="s" s="19">
         <f>IF(AO16="inout","inout",IF(AO16="input","output",IF(AO16="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="19"/>
@@ -4977,11 +5004,11 @@
       </c>
       <c r="AY16" t="s" s="8">
         <f>IF(F16="","",IF(A16="Top die - HBM","SII_L_"&amp;F16,"L_"&amp;F16))</f>
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AZ16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY16)</f>
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BA16" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP16)),TRIM(BC16))</f>
@@ -4989,36 +5016,36 @@
       </c>
       <c r="BB16" t="s" s="8">
         <f>IF(AN16="","","C_"&amp;RIGHT(AN16,LEN(AN16)-3))</f>
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="BC16" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB16)</f>
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>64</v>
@@ -5048,7 +5075,7 @@
         <v>65</v>
       </c>
       <c r="U17" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -5074,42 +5101,42 @@
         <v>65</v>
       </c>
       <c r="AG17" t="s" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AH17" t="s" s="13">
         <f>IF(OR(F17="",LEFT(F17,3)="NC_"),"",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AI17" t="s" s="14">
         <f>IF(LEFT(F17,3)="NC_","",IF(OR(A17="Top die - C4 bump",A17="Top die - HBM"),IF(G17="inout","inout",IF(G17="input","output",IF(G17="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AJ17" s="15"/>
       <c r="AK17" t="s" s="16">
         <f>IF(A17="HBM - C4 bump","inout",IF(A17="Top die - HBM",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input"))),""))</f>
       </c>
       <c r="AL17" t="s" s="17">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM17" t="s" s="18">
         <f>IF(A17="Top die - C4 bump",IF(AI17="inout","inout",IF(AI17="input","output",IF(AI17="output","input",""))),IF(A17="HBM - C4 bump",IF(AK17="inout","inout",IF(AK17="input","output",IF(AK17="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="19">
         <f>AL17</f>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="19">
         <f>IF(AM17="inout","inout",IF(AM17="input","output",IF(AM17="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP17" t="s" s="19">
         <f>IF(AR17="Point-To-Point","HBM_"&amp;AU17&amp;"_DA"&amp;AS17,IF(AR17="Multi-Drop","HBM_"&amp;AT17&amp;"_DA"&amp;AS17,IF(AR17="High-Z","",IF(AN17="","",RIGHT(AN17,LEN(AN17)-3)))))</f>
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AQ17" t="s" s="19">
         <f>IF(AO17="inout","inout",IF(AO17="input","output",IF(AO17="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="19"/>
@@ -5128,11 +5155,11 @@
       </c>
       <c r="AY17" t="s" s="8">
         <f>IF(F17="","",IF(A17="Top die - HBM","SII_L_"&amp;F17,"L_"&amp;F17))</f>
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AZ17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(AY17)</f>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BA17" t="b" s="22">
         <f>EXACT(TRIM(_xlfn.FORMULATEXT(AP17)),TRIM(BC17))</f>
@@ -5140,36 +5167,36 @@
       </c>
       <c r="BB17" t="s" s="8">
         <f>IF(AN17="","","C_"&amp;RIGHT(AN17,LEN(AN17)-3))</f>
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="BC17" t="s" s="8">
         <f>_xlfn.FORMULATEXT(BB17)</f>
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="BD17" s="23"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>64</v>
@@ -5215,54 +5242,54 @@
         <v>65</v>
       </c>
       <c r="AC18" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AD18" s="12">
         <v>0</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF18" s="12">
         <v>0</v>
       </c>
       <c r="AG18" t="s" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AH18" t="s" s="13">
         <f>IF(OR(F18="",LEFT(F18,3)="NC_"),"",IF(A18="Top die - HBM","SII_L_"&amp;F18,"L_"&amp;F18))</f>
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AI18" t="s" s="14">
         <f>IF(LEFT(F18,3)="NC_","",IF(OR(A18="Top die - C4 bump",A18="Top die - HBM"),IF(G18="inout","inout",IF(G18="input","output",IF(G18="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" t="s" s="16">
         <f>IF(A18="HBM - C4 bump","inout",IF(A18="Top die - HBM",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input"))),""))</f>
       </c>
       <c r="AL18" t="s" s="17">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AM18" t="s" s="18">
         <f>IF(A18="Top die - C4 bump",IF(AI18="inout","inout",IF(AI18="input","output",IF(AI18="output","input",""))),IF(A18="HBM - C4 bump",IF(AK18="inout","inout",IF(AK18="input","output",IF(AK18="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AN18" t="s" s="19">
         <f>AL18</f>
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="19">
         <f>IF(AM18="inout","inout",IF(AM18="input","output",IF(AM18="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AP18" t="s" s="19">
         <f>IF(AR18="Point-To-Point","HBM_"&amp;AU18&amp;"_DA"&amp;AS18,IF(AR18="Multi-Drop","HBM_"&amp;AT18&amp;"_DA"&amp;AS18,IF(AR18="High-Z","",IF(AN18="","",RIGHT(AN18,LEN(AN18)-3)))))</f>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AQ18" t="s" s="19">
         <f>IF(AO18="inout","inout",IF(AO18="input","output",IF(AO18="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="19"/>
@@ -5283,25 +5310,25 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>64</v>
@@ -5347,54 +5374,54 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
       <c r="AE19" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF19" s="12">
         <v>0</v>
       </c>
       <c r="AG19" t="s" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AH19" t="s" s="13">
         <f>IF(OR(F19="",LEFT(F19,3)="NC_"),"",IF(A19="Top die - HBM","SII_L_"&amp;F19,"L_"&amp;F19))</f>
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AI19" t="s" s="14">
         <f>IF(LEFT(F19,3)="NC_","",IF(OR(A19="Top die - C4 bump",A19="Top die - HBM"),IF(G19="inout","inout",IF(G19="input","output",IF(G19="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" t="s" s="16">
         <f>IF(A19="HBM - C4 bump","inout",IF(A19="Top die - HBM",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input"))),""))</f>
       </c>
       <c r="AL19" t="s" s="17">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AM19" t="s" s="18">
         <f>IF(A19="Top die - C4 bump",IF(AI19="inout","inout",IF(AI19="input","output",IF(AI19="output","input",""))),IF(A19="HBM - C4 bump",IF(AK19="inout","inout",IF(AK19="input","output",IF(AK19="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AN19" t="s" s="19">
         <f>AL19</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="19">
         <f>IF(AM19="inout","inout",IF(AM19="input","output",IF(AM19="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AP19" t="s" s="19">
         <f>IF(AR19="Point-To-Point","HBM_"&amp;AU19&amp;"_DA"&amp;AS19,IF(AR19="Multi-Drop","HBM_"&amp;AT19&amp;"_DA"&amp;AS19,IF(AR19="High-Z","",IF(AN19="","",RIGHT(AN19,LEN(AN19)-3)))))</f>
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AQ19" t="s" s="19">
         <f>IF(AO19="inout","inout",IF(AO19="input","output",IF(AO19="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="19"/>
@@ -5415,25 +5442,25 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>64</v>
@@ -5479,54 +5506,54 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF20" s="12">
         <v>0</v>
       </c>
       <c r="AG20" t="s" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AH20" t="s" s="13">
         <f>IF(OR(F20="",LEFT(F20,3)="NC_"),"",IF(A20="Top die - HBM","SII_L_"&amp;F20,"L_"&amp;F20))</f>
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AI20" t="s" s="14">
         <f>IF(LEFT(F20,3)="NC_","",IF(OR(A20="Top die - C4 bump",A20="Top die - HBM"),IF(G20="inout","inout",IF(G20="input","output",IF(G20="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AJ20" s="15"/>
       <c r="AK20" t="s" s="16">
         <f>IF(A20="HBM - C4 bump","inout",IF(A20="Top die - HBM",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input"))),""))</f>
       </c>
       <c r="AL20" t="s" s="17">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="18">
         <f>IF(A20="Top die - C4 bump",IF(AI20="inout","inout",IF(AI20="input","output",IF(AI20="output","input",""))),IF(A20="HBM - C4 bump",IF(AK20="inout","inout",IF(AK20="input","output",IF(AK20="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AN20" t="s" s="19">
         <f>AL20</f>
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="19">
         <f>IF(AM20="inout","inout",IF(AM20="input","output",IF(AM20="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AP20" t="s" s="19">
         <f>IF(AR20="Point-To-Point","HBM_"&amp;AU20&amp;"_DA"&amp;AS20,IF(AR20="Multi-Drop","HBM_"&amp;AT20&amp;"_DA"&amp;AS20,IF(AR20="High-Z","",IF(AN20="","",RIGHT(AN20,LEN(AN20)-3)))))</f>
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AQ20" t="s" s="19">
         <f>IF(AO20="inout","inout",IF(AO20="input","output",IF(AO20="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="19"/>
@@ -5547,25 +5574,25 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>64</v>
@@ -5611,54 +5638,54 @@
         <v>65</v>
       </c>
       <c r="AC21" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF21" s="12">
         <v>0</v>
       </c>
       <c r="AG21" t="s" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AH21" t="s" s="13">
         <f>IF(OR(F21="",LEFT(F21,3)="NC_"),"",IF(A21="Top die - HBM","SII_L_"&amp;F21,"L_"&amp;F21))</f>
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AI21" t="s" s="14">
         <f>IF(LEFT(F21,3)="NC_","",IF(OR(A21="Top die - C4 bump",A21="Top die - HBM"),IF(G21="inout","inout",IF(G21="input","output",IF(G21="output","input"))),""))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AJ21" s="15"/>
       <c r="AK21" t="s" s="16">
         <f>IF(A21="HBM - C4 bump","inout",IF(A21="Top die - HBM",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input"))),""))</f>
       </c>
       <c r="AL21" t="s" s="17">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AM21" t="s" s="18">
         <f>IF(A21="Top die - C4 bump",IF(AI21="inout","inout",IF(AI21="input","output",IF(AI21="output","input",""))),IF(A21="HBM - C4 bump",IF(AK21="inout","inout",IF(AK21="input","output",IF(AK21="output","input"))),""))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AN21" t="s" s="19">
         <f>AL21</f>
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AO21" t="s" s="19">
         <f>IF(AM21="inout","inout",IF(AM21="input","output",IF(AM21="output","input","")))</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AP21" t="s" s="19">
         <f>IF(AR21="Point-To-Point","HBM_"&amp;AU21&amp;"_DA"&amp;AS21,IF(AR21="Multi-Drop","HBM_"&amp;AT21&amp;"_DA"&amp;AS21,IF(AR21="High-Z","",IF(AN21="","",RIGHT(AN21,LEN(AN21)-3)))))</f>
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AQ21" t="s" s="19">
         <f>IF(AO21="inout","inout",IF(AO21="input","output",IF(AO21="output","input","")))</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="19"/>
@@ -5679,26 +5706,26 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" t="s" s="9">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -5770,26 +5797,26 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" t="s" s="9">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
